--- a/modelagem/business_matrix.xlsx
+++ b/modelagem/business_matrix.xlsx
@@ -8,29 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\analise-dados-evasao\modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F90DAFE-2798-46F1-8D1B-E8CC6CCFEB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F23078-BE24-4639-B7E2-A2E064444FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUS-MATRIX" sheetId="1" r:id="rId1"/>
-    <sheet name="DIMENSOES" sheetId="2" r:id="rId2"/>
-    <sheet name="FATOS" sheetId="3" r:id="rId3"/>
+    <sheet name="colunas" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BUS-MATRIX'!$A$1:$D$8</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="316">
   <si>
     <t>DIM_IES</t>
   </si>
@@ -78,6 +88,906 @@
   </si>
   <si>
     <t>DIM_TIPO_NIVEL_ACADEMICO</t>
+  </si>
+  <si>
+    <t>TABLE_SCHEMA</t>
+  </si>
+  <si>
+    <t>ORDINAL_POSITION</t>
+  </si>
+  <si>
+    <t>DATA_TYPE</t>
+  </si>
+  <si>
+    <t>dw</t>
+  </si>
+  <si>
+    <t>CO_MUNICIPIO</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>NO_MUNICIPIO</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>CO_MICRORREGIAO</t>
+  </si>
+  <si>
+    <t>NO_MICRORREGIAO</t>
+  </si>
+  <si>
+    <t>CO_MESORREGIAO</t>
+  </si>
+  <si>
+    <t>NO_MESORREGIAO</t>
+  </si>
+  <si>
+    <t>CO_UF</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>NO_UF</t>
+  </si>
+  <si>
+    <t>SG_UF</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>CO_CURSO</t>
+  </si>
+  <si>
+    <t>NO_CURSO</t>
+  </si>
+  <si>
+    <t>TP_REDE</t>
+  </si>
+  <si>
+    <t>NO_REDE</t>
+  </si>
+  <si>
+    <t>TP_DIMENSAO</t>
+  </si>
+  <si>
+    <t>NO_DIMENSAO</t>
+  </si>
+  <si>
+    <t>TP_ORGANIZACAO_ACADEMICA</t>
+  </si>
+  <si>
+    <t>NO_ORGANIZACAO_ACADEMICA</t>
+  </si>
+  <si>
+    <t>TP_CATEGORIA_ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>NO_CATEGORIA_ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>TP_GRAU_ACADEMICO</t>
+  </si>
+  <si>
+    <t>NO_GRAU_ACADEMICO</t>
+  </si>
+  <si>
+    <t>DIM_TIPO_MODALIDADE_ENSINO</t>
+  </si>
+  <si>
+    <t>TP_MODALIDADE_ENSINO</t>
+  </si>
+  <si>
+    <t>NO_MODALIDADE_ENSINO</t>
+  </si>
+  <si>
+    <t>TP_NIVEL_ACADEMICO</t>
+  </si>
+  <si>
+    <t>NO_NIVEL_ACADEMICO</t>
+  </si>
+  <si>
+    <t>CO_CINE_ROTULO</t>
+  </si>
+  <si>
+    <t>NO_CINE_ROTULO</t>
+  </si>
+  <si>
+    <t>CO_CINE_AREA_DETALHADA</t>
+  </si>
+  <si>
+    <t>NO_CINE_AREA_DETALHADA</t>
+  </si>
+  <si>
+    <t>CO_CINE_AREA_ESPECIFICA</t>
+  </si>
+  <si>
+    <t>NO_CINE_AREA_ESPECIFICA</t>
+  </si>
+  <si>
+    <t>CO_CINE_AREA_GERAL</t>
+  </si>
+  <si>
+    <t>NO_CINE_AREA_GERAL</t>
+  </si>
+  <si>
+    <t>CO_IES</t>
+  </si>
+  <si>
+    <t>NO_IES</t>
+  </si>
+  <si>
+    <t>SG_IES</t>
+  </si>
+  <si>
+    <t>IN_CAPITAL_IES</t>
+  </si>
+  <si>
+    <t>CO_MANTENEDORA</t>
+  </si>
+  <si>
+    <t>NO_MANTENEDORA</t>
+  </si>
+  <si>
+    <t>NU_ANO_CENSO</t>
+  </si>
+  <si>
+    <t>QT_TEC_TOTAL</t>
+  </si>
+  <si>
+    <t>QT_TEC_FUNDAMENTAL_INCOMP_FEM</t>
+  </si>
+  <si>
+    <t>QT_TEC_FUNDAMENTAL_INCOMP_MASC</t>
+  </si>
+  <si>
+    <t>QT_TEC_FUNDAMENTAL_COMP_FEM</t>
+  </si>
+  <si>
+    <t>QT_TEC_FUNDAMENTAL_COMP_MASC</t>
+  </si>
+  <si>
+    <t>QT_TEC_MEDIO_FEM</t>
+  </si>
+  <si>
+    <t>QT_TEC_MEDIO_MASC</t>
+  </si>
+  <si>
+    <t>QT_TEC_SUPERIOR_FEM</t>
+  </si>
+  <si>
+    <t>QT_TEC_SUPERIOR_MASC</t>
+  </si>
+  <si>
+    <t>QT_TEC_ESPECIALIZACAO_FEM</t>
+  </si>
+  <si>
+    <t>QT_TEC_ESPECIALIZACAO_MASC</t>
+  </si>
+  <si>
+    <t>QT_TEC_MESTRADO_FEM</t>
+  </si>
+  <si>
+    <t>QT_TEC_MESTRADO_MASC</t>
+  </si>
+  <si>
+    <t>QT_TEC_DOUTORADO_FEM</t>
+  </si>
+  <si>
+    <t>QT_TEC_DOUTORADO_MASC</t>
+  </si>
+  <si>
+    <t>IN_ACESSO_PORTAL_CAPES</t>
+  </si>
+  <si>
+    <t>IN_ACESSO_OUTRAS_BASES</t>
+  </si>
+  <si>
+    <t>IN_ASSINA_OUTRA_BASE</t>
+  </si>
+  <si>
+    <t>IN_REPOSITORIO_INSTITUCIONAL</t>
+  </si>
+  <si>
+    <t>IN_BUSCA_INTEGRADA</t>
+  </si>
+  <si>
+    <t>IN_SERVICO_INTERNET</t>
+  </si>
+  <si>
+    <t>IN_PARTICIPA_REDE_SOCIAL</t>
+  </si>
+  <si>
+    <t>IN_CATALOGO_ONLINE</t>
+  </si>
+  <si>
+    <t>QT_PERIODICO_ELETRONICO</t>
+  </si>
+  <si>
+    <t>QT_LIVRO_ELETRONICO</t>
+  </si>
+  <si>
+    <t>QT_DOC_TOTAL</t>
+  </si>
+  <si>
+    <t>QT_DOC_EXE</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_FEMI</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_MASC</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_SEM_GRAD</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_GRAD</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_ESP</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_MEST</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_DOUT</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_INT</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_INT_DE</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_INT_SEM_DE</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_PARC</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_HOR</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_0_29</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_30_34</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_35_39</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_40_44</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_45_49</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_50_54</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_55_59</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_60_MAIS</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_BRANCA</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_PRETA</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_PARDA</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_AMARELA</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_INDIGENA</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_COR_ND</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_BRA</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_EST</t>
+  </si>
+  <si>
+    <t>QT_DOC_EX_COM_DEFICIENCIA</t>
+  </si>
+  <si>
+    <t>IN_CAPITAL</t>
+  </si>
+  <si>
+    <t>IN_GRATUITO</t>
+  </si>
+  <si>
+    <t>QT_CURSO</t>
+  </si>
+  <si>
+    <t>QT_VG_TOTAL</t>
+  </si>
+  <si>
+    <t>QT_VG_TOTAL_DIURNO</t>
+  </si>
+  <si>
+    <t>QT_VG_TOTAL_NOTURNO</t>
+  </si>
+  <si>
+    <t>QT_VG_TOTAL_EAD</t>
+  </si>
+  <si>
+    <t>QT_VG_NOVA</t>
+  </si>
+  <si>
+    <t>QT_VG_PROC_SELETIVO</t>
+  </si>
+  <si>
+    <t>QT_VG_REMANESC</t>
+  </si>
+  <si>
+    <t>QT_VG_PROG_ESPECIAL</t>
+  </si>
+  <si>
+    <t>QT_INSCRITO_TOTAL</t>
+  </si>
+  <si>
+    <t>QT_INSCRITO_TOTAL_DIURNO</t>
+  </si>
+  <si>
+    <t>QT_INSCRITO_TOTAL_NOTURNO</t>
+  </si>
+  <si>
+    <t>QT_INSCRITO_TOTAL_EAD</t>
+  </si>
+  <si>
+    <t>QT_INSC_VG_NOVA</t>
+  </si>
+  <si>
+    <t>QT_INSC_PROC_SELETIVO</t>
+  </si>
+  <si>
+    <t>QT_INSC_VG_REMANESC</t>
+  </si>
+  <si>
+    <t>QT_INSC_VG_PROG_ESPECIAL</t>
+  </si>
+  <si>
+    <t>QT_ING</t>
+  </si>
+  <si>
+    <t>QT_ING_FEM</t>
+  </si>
+  <si>
+    <t>QT_ING_MASC</t>
+  </si>
+  <si>
+    <t>QT_ING_DIURNO</t>
+  </si>
+  <si>
+    <t>QT_ING_NOTURNO</t>
+  </si>
+  <si>
+    <t>QT_ING_VG_NOVA</t>
+  </si>
+  <si>
+    <t>QT_ING_VESTIBULAR</t>
+  </si>
+  <si>
+    <t>QT_ING_ENEM</t>
+  </si>
+  <si>
+    <t>QT_ING_AVALIACAO_SERIADA</t>
+  </si>
+  <si>
+    <t>QT_ING_SELECAO_SIMPLIFICA</t>
+  </si>
+  <si>
+    <t>QT_ING_EGR</t>
+  </si>
+  <si>
+    <t>QT_ING_OUTRO_TIPO_SELECAO</t>
+  </si>
+  <si>
+    <t>QT_ING_PROC_SELETIVO</t>
+  </si>
+  <si>
+    <t>QT_ING_VG_REMANESC</t>
+  </si>
+  <si>
+    <t>QT_ING_VG_PROG_ESPECIAL</t>
+  </si>
+  <si>
+    <t>QT_ING_OUTRA_FORMA</t>
+  </si>
+  <si>
+    <t>QT_ING_0_17</t>
+  </si>
+  <si>
+    <t>QT_ING_18_24</t>
+  </si>
+  <si>
+    <t>QT_ING_25_29</t>
+  </si>
+  <si>
+    <t>QT_ING_30_34</t>
+  </si>
+  <si>
+    <t>QT_ING_35_39</t>
+  </si>
+  <si>
+    <t>QT_ING_40_49</t>
+  </si>
+  <si>
+    <t>QT_ING_50_59</t>
+  </si>
+  <si>
+    <t>QT_ING_60_MAIS</t>
+  </si>
+  <si>
+    <t>QT_ING_BRANCA</t>
+  </si>
+  <si>
+    <t>QT_ING_PRETA</t>
+  </si>
+  <si>
+    <t>QT_ING_PARDA</t>
+  </si>
+  <si>
+    <t>QT_ING_AMARELA</t>
+  </si>
+  <si>
+    <t>QT_ING_INDIGENA</t>
+  </si>
+  <si>
+    <t>QT_ING_CORND</t>
+  </si>
+  <si>
+    <t>QT_MAT</t>
+  </si>
+  <si>
+    <t>QT_MAT_FEM</t>
+  </si>
+  <si>
+    <t>QT_MAT_MASC</t>
+  </si>
+  <si>
+    <t>QT_MAT_DIURNO</t>
+  </si>
+  <si>
+    <t>QT_MAT_NOTURNO</t>
+  </si>
+  <si>
+    <t>QT_MAT_0_17</t>
+  </si>
+  <si>
+    <t>QT_MAT_18_24</t>
+  </si>
+  <si>
+    <t>QT_MAT_25_29</t>
+  </si>
+  <si>
+    <t>QT_MAT_30_34</t>
+  </si>
+  <si>
+    <t>QT_MAT_35_39</t>
+  </si>
+  <si>
+    <t>QT_MAT_40_49</t>
+  </si>
+  <si>
+    <t>QT_MAT_50_59</t>
+  </si>
+  <si>
+    <t>QT_MAT_60_MAIS</t>
+  </si>
+  <si>
+    <t>QT_MAT_BRANCA</t>
+  </si>
+  <si>
+    <t>QT_MAT_PRETA</t>
+  </si>
+  <si>
+    <t>QT_MAT_PARDA</t>
+  </si>
+  <si>
+    <t>QT_MAT_AMARELA</t>
+  </si>
+  <si>
+    <t>QT_MAT_INDIGENA</t>
+  </si>
+  <si>
+    <t>QT_MAT_CORND</t>
+  </si>
+  <si>
+    <t>QT_CONC</t>
+  </si>
+  <si>
+    <t>QT_CONC_FEM</t>
+  </si>
+  <si>
+    <t>QT_CONC_MASC</t>
+  </si>
+  <si>
+    <t>QT_CONC_DIURNO</t>
+  </si>
+  <si>
+    <t>QT_CONC_NOTURNO</t>
+  </si>
+  <si>
+    <t>QT_CONC_0_17</t>
+  </si>
+  <si>
+    <t>QT_CONC_18_24</t>
+  </si>
+  <si>
+    <t>QT_CONC_25_29</t>
+  </si>
+  <si>
+    <t>QT_CONC_30_34</t>
+  </si>
+  <si>
+    <t>QT_CONC_35_39</t>
+  </si>
+  <si>
+    <t>QT_CONC_40_49</t>
+  </si>
+  <si>
+    <t>QT_CONC_50_59</t>
+  </si>
+  <si>
+    <t>QT_CONC_60_MAIS</t>
+  </si>
+  <si>
+    <t>QT_CONC_BRANCA</t>
+  </si>
+  <si>
+    <t>QT_CONC_PRETA</t>
+  </si>
+  <si>
+    <t>QT_CONC_PARDA</t>
+  </si>
+  <si>
+    <t>QT_CONC_AMARELA</t>
+  </si>
+  <si>
+    <t>QT_CONC_INDIGENA</t>
+  </si>
+  <si>
+    <t>QT_CONC_CORND</t>
+  </si>
+  <si>
+    <t>QT_ING_NACBRAS</t>
+  </si>
+  <si>
+    <t>QT_ING_NACESTRANG</t>
+  </si>
+  <si>
+    <t>QT_MAT_NACBRAS</t>
+  </si>
+  <si>
+    <t>QT_MAT_NACESTRANG</t>
+  </si>
+  <si>
+    <t>QT_CONC_NACBRAS</t>
+  </si>
+  <si>
+    <t>QT_CONC_NACESTRANG</t>
+  </si>
+  <si>
+    <t>QT_ALUNO_DEFICIENTE</t>
+  </si>
+  <si>
+    <t>QT_ING_DEFICIENTE</t>
+  </si>
+  <si>
+    <t>QT_MAT_DEFICIENTE</t>
+  </si>
+  <si>
+    <t>QT_CONC_DEFICIENTE</t>
+  </si>
+  <si>
+    <t>QT_ING_FINANC</t>
+  </si>
+  <si>
+    <t>QT_ING_FINANC_REEMB</t>
+  </si>
+  <si>
+    <t>QT_ING_FIES</t>
+  </si>
+  <si>
+    <t>QT_ING_RPFIES</t>
+  </si>
+  <si>
+    <t>QT_ING_FINANC_REEMB_OUTROS</t>
+  </si>
+  <si>
+    <t>QT_ING_FINANC_NREEMB</t>
+  </si>
+  <si>
+    <t>QT_ING_PROUNII</t>
+  </si>
+  <si>
+    <t>QT_ING_PROUNIP</t>
+  </si>
+  <si>
+    <t>QT_ING_NRPFIES</t>
+  </si>
+  <si>
+    <t>QT_ING_FINANC_NREEMB_OUTROS</t>
+  </si>
+  <si>
+    <t>QT_MAT_FINANC</t>
+  </si>
+  <si>
+    <t>QT_MAT_FINANC_REEMB</t>
+  </si>
+  <si>
+    <t>QT_MAT_FIES</t>
+  </si>
+  <si>
+    <t>QT_MAT_RPFIES</t>
+  </si>
+  <si>
+    <t>QT_MAT_FINANC_REEMB_OUTROS</t>
+  </si>
+  <si>
+    <t>QT_MAT_FINANC_NREEMB</t>
+  </si>
+  <si>
+    <t>QT_MAT_PROUNII</t>
+  </si>
+  <si>
+    <t>QT_MAT_PROUNIP</t>
+  </si>
+  <si>
+    <t>QT_MAT_NRPFIES</t>
+  </si>
+  <si>
+    <t>QT_MAT_FINANC_NREEMB_OUTROS</t>
+  </si>
+  <si>
+    <t>QT_CONC_FINANC</t>
+  </si>
+  <si>
+    <t>QT_CONC_FINANC_REEMB</t>
+  </si>
+  <si>
+    <t>QT_CONC_FIES</t>
+  </si>
+  <si>
+    <t>QT_CONC_RPFIES</t>
+  </si>
+  <si>
+    <t>QT_CONC_FINANC_REEMB_OUTROS</t>
+  </si>
+  <si>
+    <t>QT_CONC_FINANC_NREEMB</t>
+  </si>
+  <si>
+    <t>QT_CONC_PROUNII</t>
+  </si>
+  <si>
+    <t>QT_CONC_PROUNIP</t>
+  </si>
+  <si>
+    <t>QT_CONC_NRPFIES</t>
+  </si>
+  <si>
+    <t>QT_CONC_FINANC_NREEMB_OUTROS</t>
+  </si>
+  <si>
+    <t>QT_ING_RESERVA_VAGA</t>
+  </si>
+  <si>
+    <t>QT_ING_RVREDEPUBLICA</t>
+  </si>
+  <si>
+    <t>QT_ING_RVETNICO</t>
+  </si>
+  <si>
+    <t>QT_ING_RVPDEF</t>
+  </si>
+  <si>
+    <t>QT_ING_RVSOCIAL_RF</t>
+  </si>
+  <si>
+    <t>QT_ING_RVOUTROS</t>
+  </si>
+  <si>
+    <t>QT_MAT_RESERVA_VAGA</t>
+  </si>
+  <si>
+    <t>QT_MAT_RVREDEPUBLICA</t>
+  </si>
+  <si>
+    <t>QT_MAT_RVETNICO</t>
+  </si>
+  <si>
+    <t>QT_MAT_RVPDEF</t>
+  </si>
+  <si>
+    <t>QT_MAT_RVSOCIAL_RF</t>
+  </si>
+  <si>
+    <t>QT_MAT_RVOUTROS</t>
+  </si>
+  <si>
+    <t>QT_CONC_RESERVA_VAGA</t>
+  </si>
+  <si>
+    <t>QT_CONC_RVREDEPUBLICA</t>
+  </si>
+  <si>
+    <t>QT_CONC_RVETNICO</t>
+  </si>
+  <si>
+    <t>QT_CONC_RVPDEF</t>
+  </si>
+  <si>
+    <t>QT_CONC_RVSOCIAL_RF</t>
+  </si>
+  <si>
+    <t>QT_CONC_RVOUTROS</t>
+  </si>
+  <si>
+    <t>QT_SIT_TRANCADA</t>
+  </si>
+  <si>
+    <t>QT_SIT_DESVINCULADO</t>
+  </si>
+  <si>
+    <t>QT_SIT_TRANSFERIDO</t>
+  </si>
+  <si>
+    <t>QT_SIT_FALECIDO</t>
+  </si>
+  <si>
+    <t>QT_ING_PROCESCPUBLICA</t>
+  </si>
+  <si>
+    <t>QT_ING_PROCESCPRIVADA</t>
+  </si>
+  <si>
+    <t>QT_ING_PROCNAOINFORMADA</t>
+  </si>
+  <si>
+    <t>QT_MAT_PROCESCPUBLICA</t>
+  </si>
+  <si>
+    <t>QT_MAT_PROCESCPRIVADA</t>
+  </si>
+  <si>
+    <t>QT_MAT_PROCNAOINFORMADA</t>
+  </si>
+  <si>
+    <t>QT_CONC_PROCESCPUBLICA</t>
+  </si>
+  <si>
+    <t>QT_CONC_PROCESCPRIVADA</t>
+  </si>
+  <si>
+    <t>QT_CONC_PROCNAOINFORMADA</t>
+  </si>
+  <si>
+    <t>QT_PARFOR</t>
+  </si>
+  <si>
+    <t>QT_ING_PARFOR</t>
+  </si>
+  <si>
+    <t>QT_MAT_PARFOR</t>
+  </si>
+  <si>
+    <t>QT_CONC_PARFOR</t>
+  </si>
+  <si>
+    <t>QT_APOIO_SOCIAL</t>
+  </si>
+  <si>
+    <t>QT_ING_APOIO_SOCIAL</t>
+  </si>
+  <si>
+    <t>QT_MAT_APOIO_SOCIAL</t>
+  </si>
+  <si>
+    <t>QT_CONC_APOIO_SOCIAL</t>
+  </si>
+  <si>
+    <t>QT_ATIV_EXTRACURRICULAR</t>
+  </si>
+  <si>
+    <t>QT_ING_ATIV_EXTRACURRICULAR</t>
+  </si>
+  <si>
+    <t>QT_MAT_ATIV_EXTRACURRICULAR</t>
+  </si>
+  <si>
+    <t>QT_CONC_ATIV_EXTRACURRICULAR</t>
+  </si>
+  <si>
+    <t>QT_MOB_ACADEMICA</t>
+  </si>
+  <si>
+    <t>QT_ING_MOB_ACADEMICA</t>
+  </si>
+  <si>
+    <t>QT_MAT_MOB_ACADEMICA</t>
+  </si>
+  <si>
+    <t>QT_CONC_MOB_ACADEMICA</t>
+  </si>
+  <si>
+    <t>NU_ANO_INGRESSO</t>
+  </si>
+  <si>
+    <t>NU_PRAZO_INTEGRALIZACAO</t>
+  </si>
+  <si>
+    <t>NU_ANO_INTEGRALIZACAO</t>
+  </si>
+  <si>
+    <t>NU_PRAZO_ACOMPANHAMENTO</t>
+  </si>
+  <si>
+    <t>NU_ANO_MAXIMO_ACOMPANHAMENTO</t>
+  </si>
+  <si>
+    <t>QT_INGRESSANTE</t>
+  </si>
+  <si>
+    <t>QT_PERMANENCIA</t>
+  </si>
+  <si>
+    <t>QT_CONCLUINTE</t>
+  </si>
+  <si>
+    <t>QT_DESISTENCIA</t>
+  </si>
+  <si>
+    <t>QT_FALECIDO</t>
+  </si>
+  <si>
+    <t>VL_TAP</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>VL_TCA</t>
+  </si>
+  <si>
+    <t>VL_TDA</t>
+  </si>
+  <si>
+    <t>VL_TCAN</t>
+  </si>
+  <si>
+    <t>VL_TDAN</t>
+  </si>
+  <si>
+    <t>CO_CATALOGO</t>
+  </si>
+  <si>
+    <t>CHARACTER_MAXIMUM_LENGTH</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>TABLE_NAME</t>
+  </si>
+  <si>
+    <t>COLUMN_NAME</t>
   </si>
 </sst>
 </file>
@@ -419,7 +1329,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,24 +1531,6323 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D27B71B-A5FD-489B-8BF1-A77C6A27A3DC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F315"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C133D27-35E5-401B-920C-3CCFDC17EEB3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56">
+        <v>22</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57">
+        <v>23</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58">
+        <v>24</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60">
+        <v>26</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61">
+        <v>27</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62">
+        <v>28</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63">
+        <v>29</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64">
+        <v>30</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65">
+        <v>31</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66">
+        <v>32</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67">
+        <v>33</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68">
+        <v>34</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69">
+        <v>35</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70">
+        <v>36</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71">
+        <v>37</v>
+      </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>148</v>
+      </c>
+      <c r="D72">
+        <v>38</v>
+      </c>
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73">
+        <v>39</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>150</v>
+      </c>
+      <c r="D74">
+        <v>40</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75">
+        <v>41</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>152</v>
+      </c>
+      <c r="D76">
+        <v>42</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77">
+        <v>43</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78">
+        <v>44</v>
+      </c>
+      <c r="E78" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79">
+        <v>45</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>156</v>
+      </c>
+      <c r="D80">
+        <v>46</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81">
+        <v>47</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82">
+        <v>48</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>159</v>
+      </c>
+      <c r="D83">
+        <v>49</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84">
+        <v>50</v>
+      </c>
+      <c r="E84" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85">
+        <v>51</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>162</v>
+      </c>
+      <c r="D86">
+        <v>52</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>163</v>
+      </c>
+      <c r="D87">
+        <v>53</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>164</v>
+      </c>
+      <c r="D88">
+        <v>54</v>
+      </c>
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89">
+        <v>55</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>166</v>
+      </c>
+      <c r="D90">
+        <v>56</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>167</v>
+      </c>
+      <c r="D91">
+        <v>57</v>
+      </c>
+      <c r="E91" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>168</v>
+      </c>
+      <c r="D92">
+        <v>58</v>
+      </c>
+      <c r="E92" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93">
+        <v>59</v>
+      </c>
+      <c r="E93" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94">
+        <v>60</v>
+      </c>
+      <c r="E94" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>171</v>
+      </c>
+      <c r="D95">
+        <v>61</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>172</v>
+      </c>
+      <c r="D96">
+        <v>62</v>
+      </c>
+      <c r="E96" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>173</v>
+      </c>
+      <c r="D97">
+        <v>63</v>
+      </c>
+      <c r="E97" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>174</v>
+      </c>
+      <c r="D98">
+        <v>64</v>
+      </c>
+      <c r="E98" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>175</v>
+      </c>
+      <c r="D99">
+        <v>65</v>
+      </c>
+      <c r="E99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>176</v>
+      </c>
+      <c r="D100">
+        <v>66</v>
+      </c>
+      <c r="E100" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>177</v>
+      </c>
+      <c r="D101">
+        <v>67</v>
+      </c>
+      <c r="E101" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>178</v>
+      </c>
+      <c r="D102">
+        <v>68</v>
+      </c>
+      <c r="E102" t="s">
+        <v>21</v>
+      </c>
+      <c r="F102" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>179</v>
+      </c>
+      <c r="D103">
+        <v>69</v>
+      </c>
+      <c r="E103" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104">
+        <v>70</v>
+      </c>
+      <c r="E104" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>19</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>181</v>
+      </c>
+      <c r="D105">
+        <v>71</v>
+      </c>
+      <c r="E105" t="s">
+        <v>21</v>
+      </c>
+      <c r="F105" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>182</v>
+      </c>
+      <c r="D106">
+        <v>72</v>
+      </c>
+      <c r="E106" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>183</v>
+      </c>
+      <c r="D107">
+        <v>73</v>
+      </c>
+      <c r="E107" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>184</v>
+      </c>
+      <c r="D108">
+        <v>74</v>
+      </c>
+      <c r="E108" t="s">
+        <v>21</v>
+      </c>
+      <c r="F108" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>185</v>
+      </c>
+      <c r="D109">
+        <v>75</v>
+      </c>
+      <c r="E109" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>186</v>
+      </c>
+      <c r="D110">
+        <v>76</v>
+      </c>
+      <c r="E110" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>187</v>
+      </c>
+      <c r="D111">
+        <v>77</v>
+      </c>
+      <c r="E111" t="s">
+        <v>21</v>
+      </c>
+      <c r="F111" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>188</v>
+      </c>
+      <c r="D112">
+        <v>78</v>
+      </c>
+      <c r="E112" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>189</v>
+      </c>
+      <c r="D113">
+        <v>79</v>
+      </c>
+      <c r="E113" t="s">
+        <v>21</v>
+      </c>
+      <c r="F113" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>190</v>
+      </c>
+      <c r="D114">
+        <v>80</v>
+      </c>
+      <c r="E114" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D115">
+        <v>81</v>
+      </c>
+      <c r="E115" t="s">
+        <v>21</v>
+      </c>
+      <c r="F115" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>192</v>
+      </c>
+      <c r="D116">
+        <v>82</v>
+      </c>
+      <c r="E116" t="s">
+        <v>21</v>
+      </c>
+      <c r="F116" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>193</v>
+      </c>
+      <c r="D117">
+        <v>83</v>
+      </c>
+      <c r="E117" t="s">
+        <v>21</v>
+      </c>
+      <c r="F117" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>194</v>
+      </c>
+      <c r="D118">
+        <v>84</v>
+      </c>
+      <c r="E118" t="s">
+        <v>21</v>
+      </c>
+      <c r="F118" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>195</v>
+      </c>
+      <c r="D119">
+        <v>85</v>
+      </c>
+      <c r="E119" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>196</v>
+      </c>
+      <c r="D120">
+        <v>86</v>
+      </c>
+      <c r="E120" t="s">
+        <v>21</v>
+      </c>
+      <c r="F120" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>197</v>
+      </c>
+      <c r="D121">
+        <v>87</v>
+      </c>
+      <c r="E121" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>198</v>
+      </c>
+      <c r="D122">
+        <v>88</v>
+      </c>
+      <c r="E122" t="s">
+        <v>21</v>
+      </c>
+      <c r="F122" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>199</v>
+      </c>
+      <c r="D123">
+        <v>89</v>
+      </c>
+      <c r="E123" t="s">
+        <v>21</v>
+      </c>
+      <c r="F123" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>200</v>
+      </c>
+      <c r="D124">
+        <v>90</v>
+      </c>
+      <c r="E124" t="s">
+        <v>21</v>
+      </c>
+      <c r="F124" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>201</v>
+      </c>
+      <c r="D125">
+        <v>91</v>
+      </c>
+      <c r="E125" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>202</v>
+      </c>
+      <c r="D126">
+        <v>92</v>
+      </c>
+      <c r="E126" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>203</v>
+      </c>
+      <c r="D127">
+        <v>93</v>
+      </c>
+      <c r="E127" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>204</v>
+      </c>
+      <c r="D128">
+        <v>94</v>
+      </c>
+      <c r="E128" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>205</v>
+      </c>
+      <c r="D129">
+        <v>95</v>
+      </c>
+      <c r="E129" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>206</v>
+      </c>
+      <c r="D130">
+        <v>96</v>
+      </c>
+      <c r="E130" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>207</v>
+      </c>
+      <c r="D131">
+        <v>97</v>
+      </c>
+      <c r="E131" t="s">
+        <v>21</v>
+      </c>
+      <c r="F131" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>19</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>208</v>
+      </c>
+      <c r="D132">
+        <v>98</v>
+      </c>
+      <c r="E132" t="s">
+        <v>21</v>
+      </c>
+      <c r="F132" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>209</v>
+      </c>
+      <c r="D133">
+        <v>99</v>
+      </c>
+      <c r="E133" t="s">
+        <v>21</v>
+      </c>
+      <c r="F133" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>210</v>
+      </c>
+      <c r="D134">
+        <v>100</v>
+      </c>
+      <c r="E134" t="s">
+        <v>21</v>
+      </c>
+      <c r="F134" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>211</v>
+      </c>
+      <c r="D135">
+        <v>101</v>
+      </c>
+      <c r="E135" t="s">
+        <v>21</v>
+      </c>
+      <c r="F135" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>212</v>
+      </c>
+      <c r="D136">
+        <v>102</v>
+      </c>
+      <c r="E136" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>213</v>
+      </c>
+      <c r="D137">
+        <v>103</v>
+      </c>
+      <c r="E137" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>214</v>
+      </c>
+      <c r="D138">
+        <v>104</v>
+      </c>
+      <c r="E138" t="s">
+        <v>21</v>
+      </c>
+      <c r="F138" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>215</v>
+      </c>
+      <c r="D139">
+        <v>105</v>
+      </c>
+      <c r="E139" t="s">
+        <v>21</v>
+      </c>
+      <c r="F139" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>216</v>
+      </c>
+      <c r="D140">
+        <v>106</v>
+      </c>
+      <c r="E140" t="s">
+        <v>21</v>
+      </c>
+      <c r="F140" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>217</v>
+      </c>
+      <c r="D141">
+        <v>107</v>
+      </c>
+      <c r="E141" t="s">
+        <v>21</v>
+      </c>
+      <c r="F141" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>218</v>
+      </c>
+      <c r="D142">
+        <v>108</v>
+      </c>
+      <c r="E142" t="s">
+        <v>21</v>
+      </c>
+      <c r="F142" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>219</v>
+      </c>
+      <c r="D143">
+        <v>109</v>
+      </c>
+      <c r="E143" t="s">
+        <v>21</v>
+      </c>
+      <c r="F143" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>220</v>
+      </c>
+      <c r="D144">
+        <v>110</v>
+      </c>
+      <c r="E144" t="s">
+        <v>21</v>
+      </c>
+      <c r="F144" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>221</v>
+      </c>
+      <c r="D145">
+        <v>111</v>
+      </c>
+      <c r="E145" t="s">
+        <v>21</v>
+      </c>
+      <c r="F145" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>222</v>
+      </c>
+      <c r="D146">
+        <v>112</v>
+      </c>
+      <c r="E146" t="s">
+        <v>21</v>
+      </c>
+      <c r="F146" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>223</v>
+      </c>
+      <c r="D147">
+        <v>113</v>
+      </c>
+      <c r="E147" t="s">
+        <v>21</v>
+      </c>
+      <c r="F147" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>224</v>
+      </c>
+      <c r="D148">
+        <v>114</v>
+      </c>
+      <c r="E148" t="s">
+        <v>21</v>
+      </c>
+      <c r="F148" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>225</v>
+      </c>
+      <c r="D149">
+        <v>115</v>
+      </c>
+      <c r="E149" t="s">
+        <v>21</v>
+      </c>
+      <c r="F149" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>226</v>
+      </c>
+      <c r="D150">
+        <v>116</v>
+      </c>
+      <c r="E150" t="s">
+        <v>21</v>
+      </c>
+      <c r="F150" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>227</v>
+      </c>
+      <c r="D151">
+        <v>117</v>
+      </c>
+      <c r="E151" t="s">
+        <v>21</v>
+      </c>
+      <c r="F151" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>228</v>
+      </c>
+      <c r="D152">
+        <v>118</v>
+      </c>
+      <c r="E152" t="s">
+        <v>21</v>
+      </c>
+      <c r="F152" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>229</v>
+      </c>
+      <c r="D153">
+        <v>119</v>
+      </c>
+      <c r="E153" t="s">
+        <v>21</v>
+      </c>
+      <c r="F153" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>230</v>
+      </c>
+      <c r="D154">
+        <v>120</v>
+      </c>
+      <c r="E154" t="s">
+        <v>21</v>
+      </c>
+      <c r="F154" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>231</v>
+      </c>
+      <c r="D155">
+        <v>121</v>
+      </c>
+      <c r="E155" t="s">
+        <v>21</v>
+      </c>
+      <c r="F155" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>232</v>
+      </c>
+      <c r="D156">
+        <v>122</v>
+      </c>
+      <c r="E156" t="s">
+        <v>21</v>
+      </c>
+      <c r="F156" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>233</v>
+      </c>
+      <c r="D157">
+        <v>123</v>
+      </c>
+      <c r="E157" t="s">
+        <v>21</v>
+      </c>
+      <c r="F157" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>234</v>
+      </c>
+      <c r="D158">
+        <v>124</v>
+      </c>
+      <c r="E158" t="s">
+        <v>21</v>
+      </c>
+      <c r="F158" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>235</v>
+      </c>
+      <c r="D159">
+        <v>125</v>
+      </c>
+      <c r="E159" t="s">
+        <v>21</v>
+      </c>
+      <c r="F159" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>236</v>
+      </c>
+      <c r="D160">
+        <v>126</v>
+      </c>
+      <c r="E160" t="s">
+        <v>21</v>
+      </c>
+      <c r="F160" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>237</v>
+      </c>
+      <c r="D161">
+        <v>127</v>
+      </c>
+      <c r="E161" t="s">
+        <v>21</v>
+      </c>
+      <c r="F161" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>238</v>
+      </c>
+      <c r="D162">
+        <v>128</v>
+      </c>
+      <c r="E162" t="s">
+        <v>21</v>
+      </c>
+      <c r="F162" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>239</v>
+      </c>
+      <c r="D163">
+        <v>129</v>
+      </c>
+      <c r="E163" t="s">
+        <v>21</v>
+      </c>
+      <c r="F163" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>240</v>
+      </c>
+      <c r="D164">
+        <v>130</v>
+      </c>
+      <c r="E164" t="s">
+        <v>21</v>
+      </c>
+      <c r="F164" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>241</v>
+      </c>
+      <c r="D165">
+        <v>131</v>
+      </c>
+      <c r="E165" t="s">
+        <v>21</v>
+      </c>
+      <c r="F165" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>242</v>
+      </c>
+      <c r="D166">
+        <v>132</v>
+      </c>
+      <c r="E166" t="s">
+        <v>21</v>
+      </c>
+      <c r="F166" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>243</v>
+      </c>
+      <c r="D167">
+        <v>133</v>
+      </c>
+      <c r="E167" t="s">
+        <v>21</v>
+      </c>
+      <c r="F167" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>19</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>244</v>
+      </c>
+      <c r="D168">
+        <v>134</v>
+      </c>
+      <c r="E168" t="s">
+        <v>21</v>
+      </c>
+      <c r="F168" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>245</v>
+      </c>
+      <c r="D169">
+        <v>135</v>
+      </c>
+      <c r="E169" t="s">
+        <v>21</v>
+      </c>
+      <c r="F169" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>246</v>
+      </c>
+      <c r="D170">
+        <v>136</v>
+      </c>
+      <c r="E170" t="s">
+        <v>21</v>
+      </c>
+      <c r="F170" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>19</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s">
+        <v>247</v>
+      </c>
+      <c r="D171">
+        <v>137</v>
+      </c>
+      <c r="E171" t="s">
+        <v>21</v>
+      </c>
+      <c r="F171" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>248</v>
+      </c>
+      <c r="D172">
+        <v>138</v>
+      </c>
+      <c r="E172" t="s">
+        <v>21</v>
+      </c>
+      <c r="F172" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>19</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>249</v>
+      </c>
+      <c r="D173">
+        <v>139</v>
+      </c>
+      <c r="E173" t="s">
+        <v>21</v>
+      </c>
+      <c r="F173" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>19</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>250</v>
+      </c>
+      <c r="D174">
+        <v>140</v>
+      </c>
+      <c r="E174" t="s">
+        <v>21</v>
+      </c>
+      <c r="F174" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>19</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>251</v>
+      </c>
+      <c r="D175">
+        <v>141</v>
+      </c>
+      <c r="E175" t="s">
+        <v>21</v>
+      </c>
+      <c r="F175" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>19</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>252</v>
+      </c>
+      <c r="D176">
+        <v>142</v>
+      </c>
+      <c r="E176" t="s">
+        <v>21</v>
+      </c>
+      <c r="F176" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>19</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>253</v>
+      </c>
+      <c r="D177">
+        <v>143</v>
+      </c>
+      <c r="E177" t="s">
+        <v>21</v>
+      </c>
+      <c r="F177" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>19</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>254</v>
+      </c>
+      <c r="D178">
+        <v>144</v>
+      </c>
+      <c r="E178" t="s">
+        <v>21</v>
+      </c>
+      <c r="F178" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>19</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>255</v>
+      </c>
+      <c r="D179">
+        <v>145</v>
+      </c>
+      <c r="E179" t="s">
+        <v>21</v>
+      </c>
+      <c r="F179" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>19</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>256</v>
+      </c>
+      <c r="D180">
+        <v>146</v>
+      </c>
+      <c r="E180" t="s">
+        <v>21</v>
+      </c>
+      <c r="F180" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>19</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
+        <v>257</v>
+      </c>
+      <c r="D181">
+        <v>147</v>
+      </c>
+      <c r="E181" t="s">
+        <v>21</v>
+      </c>
+      <c r="F181" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>258</v>
+      </c>
+      <c r="D182">
+        <v>148</v>
+      </c>
+      <c r="E182" t="s">
+        <v>21</v>
+      </c>
+      <c r="F182" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B183" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>259</v>
+      </c>
+      <c r="D183">
+        <v>149</v>
+      </c>
+      <c r="E183" t="s">
+        <v>21</v>
+      </c>
+      <c r="F183" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>19</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>260</v>
+      </c>
+      <c r="D184">
+        <v>150</v>
+      </c>
+      <c r="E184" t="s">
+        <v>21</v>
+      </c>
+      <c r="F184" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>261</v>
+      </c>
+      <c r="D185">
+        <v>151</v>
+      </c>
+      <c r="E185" t="s">
+        <v>21</v>
+      </c>
+      <c r="F185" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>19</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>262</v>
+      </c>
+      <c r="D186">
+        <v>152</v>
+      </c>
+      <c r="E186" t="s">
+        <v>21</v>
+      </c>
+      <c r="F186" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>263</v>
+      </c>
+      <c r="D187">
+        <v>153</v>
+      </c>
+      <c r="E187" t="s">
+        <v>21</v>
+      </c>
+      <c r="F187" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>19</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>264</v>
+      </c>
+      <c r="D188">
+        <v>154</v>
+      </c>
+      <c r="E188" t="s">
+        <v>21</v>
+      </c>
+      <c r="F188" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>19</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" t="s">
+        <v>265</v>
+      </c>
+      <c r="D189">
+        <v>155</v>
+      </c>
+      <c r="E189" t="s">
+        <v>21</v>
+      </c>
+      <c r="F189" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>19</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" t="s">
+        <v>266</v>
+      </c>
+      <c r="D190">
+        <v>156</v>
+      </c>
+      <c r="E190" t="s">
+        <v>21</v>
+      </c>
+      <c r="F190" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>19</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" t="s">
+        <v>267</v>
+      </c>
+      <c r="D191">
+        <v>157</v>
+      </c>
+      <c r="E191" t="s">
+        <v>21</v>
+      </c>
+      <c r="F191" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>19</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>268</v>
+      </c>
+      <c r="D192">
+        <v>158</v>
+      </c>
+      <c r="E192" t="s">
+        <v>21</v>
+      </c>
+      <c r="F192" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>19</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>269</v>
+      </c>
+      <c r="D193">
+        <v>159</v>
+      </c>
+      <c r="E193" t="s">
+        <v>21</v>
+      </c>
+      <c r="F193" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194" t="s">
+        <v>270</v>
+      </c>
+      <c r="D194">
+        <v>160</v>
+      </c>
+      <c r="E194" t="s">
+        <v>21</v>
+      </c>
+      <c r="F194" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>19</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" t="s">
+        <v>271</v>
+      </c>
+      <c r="D195">
+        <v>161</v>
+      </c>
+      <c r="E195" t="s">
+        <v>21</v>
+      </c>
+      <c r="F195" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" t="s">
+        <v>272</v>
+      </c>
+      <c r="D196">
+        <v>162</v>
+      </c>
+      <c r="E196" t="s">
+        <v>21</v>
+      </c>
+      <c r="F196" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" t="s">
+        <v>273</v>
+      </c>
+      <c r="D197">
+        <v>163</v>
+      </c>
+      <c r="E197" t="s">
+        <v>21</v>
+      </c>
+      <c r="F197" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" t="s">
+        <v>274</v>
+      </c>
+      <c r="D198">
+        <v>164</v>
+      </c>
+      <c r="E198" t="s">
+        <v>21</v>
+      </c>
+      <c r="F198" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" t="s">
+        <v>275</v>
+      </c>
+      <c r="D199">
+        <v>165</v>
+      </c>
+      <c r="E199" t="s">
+        <v>21</v>
+      </c>
+      <c r="F199" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>19</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" t="s">
+        <v>276</v>
+      </c>
+      <c r="D200">
+        <v>166</v>
+      </c>
+      <c r="E200" t="s">
+        <v>21</v>
+      </c>
+      <c r="F200" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>19</v>
+      </c>
+      <c r="B201" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" t="s">
+        <v>277</v>
+      </c>
+      <c r="D201">
+        <v>167</v>
+      </c>
+      <c r="E201" t="s">
+        <v>21</v>
+      </c>
+      <c r="F201" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" t="s">
+        <v>278</v>
+      </c>
+      <c r="D202">
+        <v>168</v>
+      </c>
+      <c r="E202" t="s">
+        <v>21</v>
+      </c>
+      <c r="F202" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" t="s">
+        <v>279</v>
+      </c>
+      <c r="D203">
+        <v>169</v>
+      </c>
+      <c r="E203" t="s">
+        <v>21</v>
+      </c>
+      <c r="F203" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>19</v>
+      </c>
+      <c r="B204" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" t="s">
+        <v>280</v>
+      </c>
+      <c r="D204">
+        <v>170</v>
+      </c>
+      <c r="E204" t="s">
+        <v>21</v>
+      </c>
+      <c r="F204" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>19</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" t="s">
+        <v>281</v>
+      </c>
+      <c r="D205">
+        <v>171</v>
+      </c>
+      <c r="E205" t="s">
+        <v>21</v>
+      </c>
+      <c r="F205" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" t="s">
+        <v>282</v>
+      </c>
+      <c r="D206">
+        <v>172</v>
+      </c>
+      <c r="E206" t="s">
+        <v>21</v>
+      </c>
+      <c r="F206" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>19</v>
+      </c>
+      <c r="B207" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" t="s">
+        <v>283</v>
+      </c>
+      <c r="D207">
+        <v>173</v>
+      </c>
+      <c r="E207" t="s">
+        <v>21</v>
+      </c>
+      <c r="F207" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>19</v>
+      </c>
+      <c r="B208" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" t="s">
+        <v>284</v>
+      </c>
+      <c r="D208">
+        <v>174</v>
+      </c>
+      <c r="E208" t="s">
+        <v>21</v>
+      </c>
+      <c r="F208" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>19</v>
+      </c>
+      <c r="B209" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" t="s">
+        <v>285</v>
+      </c>
+      <c r="D209">
+        <v>175</v>
+      </c>
+      <c r="E209" t="s">
+        <v>21</v>
+      </c>
+      <c r="F209" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>19</v>
+      </c>
+      <c r="B210" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" t="s">
+        <v>286</v>
+      </c>
+      <c r="D210">
+        <v>176</v>
+      </c>
+      <c r="E210" t="s">
+        <v>21</v>
+      </c>
+      <c r="F210" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>19</v>
+      </c>
+      <c r="B211" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" t="s">
+        <v>287</v>
+      </c>
+      <c r="D211">
+        <v>177</v>
+      </c>
+      <c r="E211" t="s">
+        <v>21</v>
+      </c>
+      <c r="F211" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>19</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" t="s">
+        <v>288</v>
+      </c>
+      <c r="D212">
+        <v>178</v>
+      </c>
+      <c r="E212" t="s">
+        <v>21</v>
+      </c>
+      <c r="F212" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>19</v>
+      </c>
+      <c r="B213" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" t="s">
+        <v>289</v>
+      </c>
+      <c r="D213">
+        <v>179</v>
+      </c>
+      <c r="E213" t="s">
+        <v>21</v>
+      </c>
+      <c r="F213" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>19</v>
+      </c>
+      <c r="B214" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" t="s">
+        <v>290</v>
+      </c>
+      <c r="D214">
+        <v>180</v>
+      </c>
+      <c r="E214" t="s">
+        <v>21</v>
+      </c>
+      <c r="F214" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>19</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" t="s">
+        <v>291</v>
+      </c>
+      <c r="D215">
+        <v>181</v>
+      </c>
+      <c r="E215" t="s">
+        <v>21</v>
+      </c>
+      <c r="F215" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>19</v>
+      </c>
+      <c r="B216" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" t="s">
+        <v>292</v>
+      </c>
+      <c r="D216">
+        <v>182</v>
+      </c>
+      <c r="E216" t="s">
+        <v>21</v>
+      </c>
+      <c r="F216" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>19</v>
+      </c>
+      <c r="B217" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" t="s">
+        <v>293</v>
+      </c>
+      <c r="D217">
+        <v>183</v>
+      </c>
+      <c r="E217" t="s">
+        <v>21</v>
+      </c>
+      <c r="F217" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>19</v>
+      </c>
+      <c r="B218" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" t="s">
+        <v>294</v>
+      </c>
+      <c r="D218">
+        <v>184</v>
+      </c>
+      <c r="E218" t="s">
+        <v>21</v>
+      </c>
+      <c r="F218" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>19</v>
+      </c>
+      <c r="B219" t="s">
+        <v>0</v>
+      </c>
+      <c r="C219" t="s">
+        <v>58</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219" t="s">
+        <v>21</v>
+      </c>
+      <c r="F219" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>19</v>
+      </c>
+      <c r="B220" t="s">
+        <v>0</v>
+      </c>
+      <c r="C220" t="s">
+        <v>59</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+      <c r="E220" t="s">
+        <v>23</v>
+      </c>
+      <c r="F220">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>19</v>
+      </c>
+      <c r="B221" t="s">
+        <v>0</v>
+      </c>
+      <c r="C221" t="s">
+        <v>60</v>
+      </c>
+      <c r="D221">
+        <v>3</v>
+      </c>
+      <c r="E221" t="s">
+        <v>23</v>
+      </c>
+      <c r="F221">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>19</v>
+      </c>
+      <c r="B222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C222" t="s">
+        <v>61</v>
+      </c>
+      <c r="D222">
+        <v>4</v>
+      </c>
+      <c r="E222" t="s">
+        <v>21</v>
+      </c>
+      <c r="F222" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223" t="s">
+        <v>0</v>
+      </c>
+      <c r="C223" t="s">
+        <v>39</v>
+      </c>
+      <c r="D223">
+        <v>5</v>
+      </c>
+      <c r="E223" t="s">
+        <v>21</v>
+      </c>
+      <c r="F223" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>19</v>
+      </c>
+      <c r="B224" t="s">
+        <v>0</v>
+      </c>
+      <c r="C224" t="s">
+        <v>41</v>
+      </c>
+      <c r="D224">
+        <v>6</v>
+      </c>
+      <c r="E224" t="s">
+        <v>21</v>
+      </c>
+      <c r="F224" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>19</v>
+      </c>
+      <c r="B225" t="s">
+        <v>0</v>
+      </c>
+      <c r="C225" t="s">
+        <v>62</v>
+      </c>
+      <c r="D225">
+        <v>7</v>
+      </c>
+      <c r="E225" t="s">
+        <v>21</v>
+      </c>
+      <c r="F225" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>19</v>
+      </c>
+      <c r="B226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226">
+        <v>8</v>
+      </c>
+      <c r="E226" t="s">
+        <v>23</v>
+      </c>
+      <c r="F226">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>19</v>
+      </c>
+      <c r="B227" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227" t="s">
+        <v>58</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227" t="s">
+        <v>21</v>
+      </c>
+      <c r="F227" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>19</v>
+      </c>
+      <c r="B228" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" t="s">
+        <v>20</v>
+      </c>
+      <c r="D228">
+        <v>2</v>
+      </c>
+      <c r="E228" t="s">
+        <v>21</v>
+      </c>
+      <c r="F228" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>19</v>
+      </c>
+      <c r="B229" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229" t="s">
+        <v>39</v>
+      </c>
+      <c r="D229">
+        <v>3</v>
+      </c>
+      <c r="E229" t="s">
+        <v>21</v>
+      </c>
+      <c r="F229" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>19</v>
+      </c>
+      <c r="B230" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" t="s">
+        <v>41</v>
+      </c>
+      <c r="D230">
+        <v>4</v>
+      </c>
+      <c r="E230" t="s">
+        <v>21</v>
+      </c>
+      <c r="F230" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>19</v>
+      </c>
+      <c r="B231" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" t="s">
+        <v>64</v>
+      </c>
+      <c r="D231">
+        <v>5</v>
+      </c>
+      <c r="E231" t="s">
+        <v>21</v>
+      </c>
+      <c r="F231" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>19</v>
+      </c>
+      <c r="B232" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" t="s">
+        <v>65</v>
+      </c>
+      <c r="D232">
+        <v>6</v>
+      </c>
+      <c r="E232" t="s">
+        <v>21</v>
+      </c>
+      <c r="F232" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>19</v>
+      </c>
+      <c r="B233" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" t="s">
+        <v>66</v>
+      </c>
+      <c r="D233">
+        <v>7</v>
+      </c>
+      <c r="E233" t="s">
+        <v>21</v>
+      </c>
+      <c r="F233" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>19</v>
+      </c>
+      <c r="B234" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" t="s">
+        <v>67</v>
+      </c>
+      <c r="D234">
+        <v>8</v>
+      </c>
+      <c r="E234" t="s">
+        <v>21</v>
+      </c>
+      <c r="F234" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>19</v>
+      </c>
+      <c r="B235" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235">
+        <v>9</v>
+      </c>
+      <c r="E235" t="s">
+        <v>21</v>
+      </c>
+      <c r="F235" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>19</v>
+      </c>
+      <c r="B236" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" t="s">
+        <v>69</v>
+      </c>
+      <c r="D236">
+        <v>10</v>
+      </c>
+      <c r="E236" t="s">
+        <v>21</v>
+      </c>
+      <c r="F236" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>19</v>
+      </c>
+      <c r="B237" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" t="s">
+        <v>70</v>
+      </c>
+      <c r="D237">
+        <v>11</v>
+      </c>
+      <c r="E237" t="s">
+        <v>21</v>
+      </c>
+      <c r="F237" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>19</v>
+      </c>
+      <c r="B238" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" t="s">
+        <v>71</v>
+      </c>
+      <c r="D238">
+        <v>12</v>
+      </c>
+      <c r="E238" t="s">
+        <v>21</v>
+      </c>
+      <c r="F238" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>19</v>
+      </c>
+      <c r="B239" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" t="s">
+        <v>72</v>
+      </c>
+      <c r="D239">
+        <v>13</v>
+      </c>
+      <c r="E239" t="s">
+        <v>21</v>
+      </c>
+      <c r="F239" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>19</v>
+      </c>
+      <c r="B240" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" t="s">
+        <v>73</v>
+      </c>
+      <c r="D240">
+        <v>14</v>
+      </c>
+      <c r="E240" t="s">
+        <v>21</v>
+      </c>
+      <c r="F240" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>19</v>
+      </c>
+      <c r="B241" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" t="s">
+        <v>74</v>
+      </c>
+      <c r="D241">
+        <v>15</v>
+      </c>
+      <c r="E241" t="s">
+        <v>21</v>
+      </c>
+      <c r="F241" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>19</v>
+      </c>
+      <c r="B242" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242" t="s">
+        <v>75</v>
+      </c>
+      <c r="D242">
+        <v>16</v>
+      </c>
+      <c r="E242" t="s">
+        <v>21</v>
+      </c>
+      <c r="F242" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>19</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>76</v>
+      </c>
+      <c r="D243">
+        <v>17</v>
+      </c>
+      <c r="E243" t="s">
+        <v>21</v>
+      </c>
+      <c r="F243" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>19</v>
+      </c>
+      <c r="B244" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" t="s">
+        <v>77</v>
+      </c>
+      <c r="D244">
+        <v>18</v>
+      </c>
+      <c r="E244" t="s">
+        <v>21</v>
+      </c>
+      <c r="F244" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>19</v>
+      </c>
+      <c r="B245" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245" t="s">
+        <v>78</v>
+      </c>
+      <c r="D245">
+        <v>19</v>
+      </c>
+      <c r="E245" t="s">
+        <v>21</v>
+      </c>
+      <c r="F245" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>19</v>
+      </c>
+      <c r="B246" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" t="s">
+        <v>79</v>
+      </c>
+      <c r="D246">
+        <v>20</v>
+      </c>
+      <c r="E246" t="s">
+        <v>21</v>
+      </c>
+      <c r="F246" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>19</v>
+      </c>
+      <c r="B247" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247" t="s">
+        <v>80</v>
+      </c>
+      <c r="D247">
+        <v>21</v>
+      </c>
+      <c r="E247" t="s">
+        <v>21</v>
+      </c>
+      <c r="F247" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>19</v>
+      </c>
+      <c r="B248" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" t="s">
+        <v>81</v>
+      </c>
+      <c r="D248">
+        <v>22</v>
+      </c>
+      <c r="E248" t="s">
+        <v>21</v>
+      </c>
+      <c r="F248" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>19</v>
+      </c>
+      <c r="B249" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" t="s">
+        <v>82</v>
+      </c>
+      <c r="D249">
+        <v>23</v>
+      </c>
+      <c r="E249" t="s">
+        <v>21</v>
+      </c>
+      <c r="F249" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>19</v>
+      </c>
+      <c r="B250" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" t="s">
+        <v>83</v>
+      </c>
+      <c r="D250">
+        <v>24</v>
+      </c>
+      <c r="E250" t="s">
+        <v>21</v>
+      </c>
+      <c r="F250" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>19</v>
+      </c>
+      <c r="B251" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251" t="s">
+        <v>84</v>
+      </c>
+      <c r="D251">
+        <v>25</v>
+      </c>
+      <c r="E251" t="s">
+        <v>21</v>
+      </c>
+      <c r="F251" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>19</v>
+      </c>
+      <c r="B252" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" t="s">
+        <v>85</v>
+      </c>
+      <c r="D252">
+        <v>26</v>
+      </c>
+      <c r="E252" t="s">
+        <v>21</v>
+      </c>
+      <c r="F252" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>19</v>
+      </c>
+      <c r="B253" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" t="s">
+        <v>86</v>
+      </c>
+      <c r="D253">
+        <v>27</v>
+      </c>
+      <c r="E253" t="s">
+        <v>21</v>
+      </c>
+      <c r="F253" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>19</v>
+      </c>
+      <c r="B254" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" t="s">
+        <v>87</v>
+      </c>
+      <c r="D254">
+        <v>28</v>
+      </c>
+      <c r="E254" t="s">
+        <v>21</v>
+      </c>
+      <c r="F254" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>19</v>
+      </c>
+      <c r="B255" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255" t="s">
+        <v>88</v>
+      </c>
+      <c r="D255">
+        <v>29</v>
+      </c>
+      <c r="E255" t="s">
+        <v>21</v>
+      </c>
+      <c r="F255" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>19</v>
+      </c>
+      <c r="B256" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" t="s">
+        <v>89</v>
+      </c>
+      <c r="D256">
+        <v>30</v>
+      </c>
+      <c r="E256" t="s">
+        <v>21</v>
+      </c>
+      <c r="F256" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>19</v>
+      </c>
+      <c r="B257" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257" t="s">
+        <v>90</v>
+      </c>
+      <c r="D257">
+        <v>31</v>
+      </c>
+      <c r="E257" t="s">
+        <v>21</v>
+      </c>
+      <c r="F257" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>19</v>
+      </c>
+      <c r="B258" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" t="s">
+        <v>91</v>
+      </c>
+      <c r="D258">
+        <v>32</v>
+      </c>
+      <c r="E258" t="s">
+        <v>21</v>
+      </c>
+      <c r="F258" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>19</v>
+      </c>
+      <c r="B259" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259" t="s">
+        <v>92</v>
+      </c>
+      <c r="D259">
+        <v>33</v>
+      </c>
+      <c r="E259" t="s">
+        <v>21</v>
+      </c>
+      <c r="F259" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>19</v>
+      </c>
+      <c r="B260" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260" t="s">
+        <v>93</v>
+      </c>
+      <c r="D260">
+        <v>34</v>
+      </c>
+      <c r="E260" t="s">
+        <v>21</v>
+      </c>
+      <c r="F260" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>19</v>
+      </c>
+      <c r="B261" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261" t="s">
+        <v>94</v>
+      </c>
+      <c r="D261">
+        <v>35</v>
+      </c>
+      <c r="E261" t="s">
+        <v>21</v>
+      </c>
+      <c r="F261" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>19</v>
+      </c>
+      <c r="B262" t="s">
+        <v>4</v>
+      </c>
+      <c r="C262" t="s">
+        <v>95</v>
+      </c>
+      <c r="D262">
+        <v>36</v>
+      </c>
+      <c r="E262" t="s">
+        <v>21</v>
+      </c>
+      <c r="F262" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>19</v>
+      </c>
+      <c r="B263" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263" t="s">
+        <v>96</v>
+      </c>
+      <c r="D263">
+        <v>37</v>
+      </c>
+      <c r="E263" t="s">
+        <v>21</v>
+      </c>
+      <c r="F263" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>19</v>
+      </c>
+      <c r="B264" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264" t="s">
+        <v>97</v>
+      </c>
+      <c r="D264">
+        <v>38</v>
+      </c>
+      <c r="E264" t="s">
+        <v>21</v>
+      </c>
+      <c r="F264" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>19</v>
+      </c>
+      <c r="B265" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265" t="s">
+        <v>98</v>
+      </c>
+      <c r="D265">
+        <v>39</v>
+      </c>
+      <c r="E265" t="s">
+        <v>21</v>
+      </c>
+      <c r="F265" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>19</v>
+      </c>
+      <c r="B266" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" t="s">
+        <v>99</v>
+      </c>
+      <c r="D266">
+        <v>40</v>
+      </c>
+      <c r="E266" t="s">
+        <v>21</v>
+      </c>
+      <c r="F266" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>19</v>
+      </c>
+      <c r="B267" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267" t="s">
+        <v>100</v>
+      </c>
+      <c r="D267">
+        <v>41</v>
+      </c>
+      <c r="E267" t="s">
+        <v>21</v>
+      </c>
+      <c r="F267" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>19</v>
+      </c>
+      <c r="B268" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268" t="s">
+        <v>101</v>
+      </c>
+      <c r="D268">
+        <v>42</v>
+      </c>
+      <c r="E268" t="s">
+        <v>21</v>
+      </c>
+      <c r="F268" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>19</v>
+      </c>
+      <c r="B269" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269" t="s">
+        <v>102</v>
+      </c>
+      <c r="D269">
+        <v>43</v>
+      </c>
+      <c r="E269" t="s">
+        <v>21</v>
+      </c>
+      <c r="F269" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>19</v>
+      </c>
+      <c r="B270" t="s">
+        <v>4</v>
+      </c>
+      <c r="C270" t="s">
+        <v>103</v>
+      </c>
+      <c r="D270">
+        <v>44</v>
+      </c>
+      <c r="E270" t="s">
+        <v>21</v>
+      </c>
+      <c r="F270" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>19</v>
+      </c>
+      <c r="B271" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271" t="s">
+        <v>104</v>
+      </c>
+      <c r="D271">
+        <v>45</v>
+      </c>
+      <c r="E271" t="s">
+        <v>21</v>
+      </c>
+      <c r="F271" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>19</v>
+      </c>
+      <c r="B272" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" t="s">
+        <v>105</v>
+      </c>
+      <c r="D272">
+        <v>46</v>
+      </c>
+      <c r="E272" t="s">
+        <v>21</v>
+      </c>
+      <c r="F272" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>19</v>
+      </c>
+      <c r="B273" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" t="s">
+        <v>106</v>
+      </c>
+      <c r="D273">
+        <v>47</v>
+      </c>
+      <c r="E273" t="s">
+        <v>21</v>
+      </c>
+      <c r="F273" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>19</v>
+      </c>
+      <c r="B274" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274" t="s">
+        <v>107</v>
+      </c>
+      <c r="D274">
+        <v>48</v>
+      </c>
+      <c r="E274" t="s">
+        <v>21</v>
+      </c>
+      <c r="F274" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>19</v>
+      </c>
+      <c r="B275" t="s">
+        <v>4</v>
+      </c>
+      <c r="C275" t="s">
+        <v>108</v>
+      </c>
+      <c r="D275">
+        <v>49</v>
+      </c>
+      <c r="E275" t="s">
+        <v>21</v>
+      </c>
+      <c r="F275" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>19</v>
+      </c>
+      <c r="B276" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" t="s">
+        <v>109</v>
+      </c>
+      <c r="D276">
+        <v>50</v>
+      </c>
+      <c r="E276" t="s">
+        <v>21</v>
+      </c>
+      <c r="F276" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>19</v>
+      </c>
+      <c r="B277" t="s">
+        <v>4</v>
+      </c>
+      <c r="C277" t="s">
+        <v>110</v>
+      </c>
+      <c r="D277">
+        <v>51</v>
+      </c>
+      <c r="E277" t="s">
+        <v>21</v>
+      </c>
+      <c r="F277" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>19</v>
+      </c>
+      <c r="B278" t="s">
+        <v>4</v>
+      </c>
+      <c r="C278" t="s">
+        <v>111</v>
+      </c>
+      <c r="D278">
+        <v>52</v>
+      </c>
+      <c r="E278" t="s">
+        <v>21</v>
+      </c>
+      <c r="F278" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>19</v>
+      </c>
+      <c r="B279" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279" t="s">
+        <v>112</v>
+      </c>
+      <c r="D279">
+        <v>53</v>
+      </c>
+      <c r="E279" t="s">
+        <v>21</v>
+      </c>
+      <c r="F279" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>19</v>
+      </c>
+      <c r="B280" t="s">
+        <v>4</v>
+      </c>
+      <c r="C280" t="s">
+        <v>113</v>
+      </c>
+      <c r="D280">
+        <v>54</v>
+      </c>
+      <c r="E280" t="s">
+        <v>21</v>
+      </c>
+      <c r="F280" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>19</v>
+      </c>
+      <c r="B281" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" t="s">
+        <v>114</v>
+      </c>
+      <c r="D281">
+        <v>55</v>
+      </c>
+      <c r="E281" t="s">
+        <v>21</v>
+      </c>
+      <c r="F281" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>19</v>
+      </c>
+      <c r="B282" t="s">
+        <v>4</v>
+      </c>
+      <c r="C282" t="s">
+        <v>115</v>
+      </c>
+      <c r="D282">
+        <v>56</v>
+      </c>
+      <c r="E282" t="s">
+        <v>21</v>
+      </c>
+      <c r="F282" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>19</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" t="s">
+        <v>116</v>
+      </c>
+      <c r="D283">
+        <v>57</v>
+      </c>
+      <c r="E283" t="s">
+        <v>21</v>
+      </c>
+      <c r="F283" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>19</v>
+      </c>
+      <c r="B284" t="s">
+        <v>4</v>
+      </c>
+      <c r="C284" t="s">
+        <v>117</v>
+      </c>
+      <c r="D284">
+        <v>58</v>
+      </c>
+      <c r="E284" t="s">
+        <v>21</v>
+      </c>
+      <c r="F284" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>19</v>
+      </c>
+      <c r="B285" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285" t="s">
+        <v>118</v>
+      </c>
+      <c r="D285">
+        <v>59</v>
+      </c>
+      <c r="E285" t="s">
+        <v>21</v>
+      </c>
+      <c r="F285" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>19</v>
+      </c>
+      <c r="B286" t="s">
+        <v>4</v>
+      </c>
+      <c r="C286" t="s">
+        <v>119</v>
+      </c>
+      <c r="D286">
+        <v>60</v>
+      </c>
+      <c r="E286" t="s">
+        <v>21</v>
+      </c>
+      <c r="F286" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>19</v>
+      </c>
+      <c r="B287" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287" t="s">
+        <v>120</v>
+      </c>
+      <c r="D287">
+        <v>61</v>
+      </c>
+      <c r="E287" t="s">
+        <v>21</v>
+      </c>
+      <c r="F287" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>19</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>33</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288" t="s">
+        <v>21</v>
+      </c>
+      <c r="F288" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>19</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" t="s">
+        <v>20</v>
+      </c>
+      <c r="D289">
+        <v>2</v>
+      </c>
+      <c r="E289" t="s">
+        <v>21</v>
+      </c>
+      <c r="F289" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>19</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>121</v>
+      </c>
+      <c r="D290">
+        <v>3</v>
+      </c>
+      <c r="E290" t="s">
+        <v>21</v>
+      </c>
+      <c r="F290" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>19</v>
+      </c>
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" t="s">
+        <v>37</v>
+      </c>
+      <c r="D291">
+        <v>4</v>
+      </c>
+      <c r="E291" t="s">
+        <v>21</v>
+      </c>
+      <c r="F291" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>19</v>
+      </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" t="s">
+        <v>35</v>
+      </c>
+      <c r="D292">
+        <v>5</v>
+      </c>
+      <c r="E292" t="s">
+        <v>21</v>
+      </c>
+      <c r="F292" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>19</v>
+      </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" t="s">
+        <v>58</v>
+      </c>
+      <c r="D293">
+        <v>6</v>
+      </c>
+      <c r="E293" t="s">
+        <v>21</v>
+      </c>
+      <c r="F293" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>19</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" t="s">
+        <v>50</v>
+      </c>
+      <c r="D294">
+        <v>7</v>
+      </c>
+      <c r="E294" t="s">
+        <v>23</v>
+      </c>
+      <c r="F294">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>19</v>
+      </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" t="s">
+        <v>43</v>
+      </c>
+      <c r="D295">
+        <v>8</v>
+      </c>
+      <c r="E295" t="s">
+        <v>21</v>
+      </c>
+      <c r="F295" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>19</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" t="s">
+        <v>122</v>
+      </c>
+      <c r="D296">
+        <v>9</v>
+      </c>
+      <c r="E296" t="s">
+        <v>21</v>
+      </c>
+      <c r="F296" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>19</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" t="s">
+        <v>46</v>
+      </c>
+      <c r="D297">
+        <v>10</v>
+      </c>
+      <c r="E297" t="s">
+        <v>21</v>
+      </c>
+      <c r="F297" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>19</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" t="s">
+        <v>48</v>
+      </c>
+      <c r="D298">
+        <v>11</v>
+      </c>
+      <c r="E298" t="s">
+        <v>21</v>
+      </c>
+      <c r="F298" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>19</v>
+      </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" t="s">
+        <v>64</v>
+      </c>
+      <c r="D299">
+        <v>12</v>
+      </c>
+      <c r="E299" t="s">
+        <v>21</v>
+      </c>
+      <c r="F299" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>19</v>
+      </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" t="s">
+        <v>295</v>
+      </c>
+      <c r="D300">
+        <v>13</v>
+      </c>
+      <c r="E300" t="s">
+        <v>21</v>
+      </c>
+      <c r="F300" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>19</v>
+      </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>296</v>
+      </c>
+      <c r="D301">
+        <v>14</v>
+      </c>
+      <c r="E301" t="s">
+        <v>21</v>
+      </c>
+      <c r="F301" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>19</v>
+      </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" t="s">
+        <v>297</v>
+      </c>
+      <c r="D302">
+        <v>15</v>
+      </c>
+      <c r="E302" t="s">
+        <v>21</v>
+      </c>
+      <c r="F302" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>19</v>
+      </c>
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
+      <c r="C303" t="s">
+        <v>298</v>
+      </c>
+      <c r="D303">
+        <v>16</v>
+      </c>
+      <c r="E303" t="s">
+        <v>21</v>
+      </c>
+      <c r="F303" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>19</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" t="s">
+        <v>299</v>
+      </c>
+      <c r="D304">
+        <v>17</v>
+      </c>
+      <c r="E304" t="s">
+        <v>21</v>
+      </c>
+      <c r="F304" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>19</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" t="s">
+        <v>300</v>
+      </c>
+      <c r="D305">
+        <v>18</v>
+      </c>
+      <c r="E305" t="s">
+        <v>21</v>
+      </c>
+      <c r="F305" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>19</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" t="s">
+        <v>301</v>
+      </c>
+      <c r="D306">
+        <v>19</v>
+      </c>
+      <c r="E306" t="s">
+        <v>21</v>
+      </c>
+      <c r="F306" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>19</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" t="s">
+        <v>302</v>
+      </c>
+      <c r="D307">
+        <v>20</v>
+      </c>
+      <c r="E307" t="s">
+        <v>21</v>
+      </c>
+      <c r="F307" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>19</v>
+      </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" t="s">
+        <v>303</v>
+      </c>
+      <c r="D308">
+        <v>21</v>
+      </c>
+      <c r="E308" t="s">
+        <v>21</v>
+      </c>
+      <c r="F308" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>19</v>
+      </c>
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309" t="s">
+        <v>304</v>
+      </c>
+      <c r="D309">
+        <v>22</v>
+      </c>
+      <c r="E309" t="s">
+        <v>21</v>
+      </c>
+      <c r="F309" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>19</v>
+      </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" t="s">
+        <v>305</v>
+      </c>
+      <c r="D310">
+        <v>23</v>
+      </c>
+      <c r="E310" t="s">
+        <v>306</v>
+      </c>
+      <c r="F310" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>19</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>307</v>
+      </c>
+      <c r="D311">
+        <v>24</v>
+      </c>
+      <c r="E311" t="s">
+        <v>306</v>
+      </c>
+      <c r="F311" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>19</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312" t="s">
+        <v>308</v>
+      </c>
+      <c r="D312">
+        <v>25</v>
+      </c>
+      <c r="E312" t="s">
+        <v>306</v>
+      </c>
+      <c r="F312" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>19</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" t="s">
+        <v>309</v>
+      </c>
+      <c r="D313">
+        <v>26</v>
+      </c>
+      <c r="E313" t="s">
+        <v>306</v>
+      </c>
+      <c r="F313" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>19</v>
+      </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" t="s">
+        <v>310</v>
+      </c>
+      <c r="D314">
+        <v>27</v>
+      </c>
+      <c r="E314" t="s">
+        <v>306</v>
+      </c>
+      <c r="F314" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>19</v>
+      </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" t="s">
+        <v>311</v>
+      </c>
+      <c r="D315">
+        <v>28</v>
+      </c>
+      <c r="E315" t="s">
+        <v>21</v>
+      </c>
+      <c r="F315" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/modelagem/business_matrix.xlsx
+++ b/modelagem/business_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\analise-dados-evasao\modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F23078-BE24-4639-B7E2-A2E064444FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45905DF5-4184-4551-93D3-034AA579093A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1329,7 +1329,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/modelagem/business_matrix.xlsx
+++ b/modelagem/business_matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\analise-dados-evasao\modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC302864-4DBE-4E74-ADC6-12924EF77BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2544385-E17C-4607-A1D5-117F3972C38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUS-MATRIX-SEMANTICO" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'BUS-MATRIX'!$A$1:$D$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BUS-MATRIX-SEMANTICO'!$B$2:$E$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">colunas!$A$1:$F$670</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">colunas!$A$1:$H$664</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1422,7 +1422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAE2378-60EF-4C51-BCF6-8032E5BE32F5}">
   <dimension ref="B2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1843,10 +1843,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D27B71B-A5FD-489B-8BF1-A77C6A27A3DC}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H664"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D674" sqref="D674"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1886,7 +1887,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>324</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>324</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>324</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>324</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>324</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>324</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>324</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>324</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>324</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>324</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>324</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>324</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>324</v>
       </c>
@@ -2328,7 +2329,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>324</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>324</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>324</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>324</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>324</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>324</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>324</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>324</v>
       </c>
@@ -2536,7 +2537,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>324</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>324</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>324</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>324</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>324</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>324</v>
       </c>
@@ -2692,7 +2693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>324</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>324</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>324</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>324</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>324</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>324</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>324</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>324</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>324</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>324</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>324</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>324</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>324</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>324</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>324</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>324</v>
       </c>
@@ -3108,7 +3109,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>324</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>324</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>324</v>
       </c>
@@ -3186,7 +3187,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>324</v>
       </c>
@@ -3212,7 +3213,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>324</v>
       </c>
@@ -3238,7 +3239,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>324</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>324</v>
       </c>
@@ -3290,7 +3291,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>324</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>324</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>324</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>324</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>324</v>
       </c>
@@ -3420,7 +3421,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>324</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>324</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>324</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>324</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>324</v>
       </c>
@@ -3550,7 +3551,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>324</v>
       </c>
@@ -3576,7 +3577,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>324</v>
       </c>
@@ -3587,22 +3588,22 @@
         <v>318</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>326</v>
       </c>
       <c r="G67" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>324</v>
       </c>
@@ -3610,13 +3611,13 @@
         <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
         <v>56</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>326</v>
@@ -3628,7 +3629,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>324</v>
       </c>
@@ -3636,25 +3637,25 @@
         <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G69" t="s">
-        <v>21</v>
-      </c>
-      <c r="H69">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="H69" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>324</v>
       </c>
@@ -3665,22 +3666,22 @@
         <v>318</v>
       </c>
       <c r="D70" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E70">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F70" t="s">
         <v>326</v>
       </c>
       <c r="G70" t="s">
-        <v>21</v>
-      </c>
-      <c r="H70">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="H70" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>324</v>
       </c>
@@ -3688,25 +3689,25 @@
         <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G71" t="s">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>324</v>
       </c>
@@ -3717,22 +3718,22 @@
         <v>318</v>
       </c>
       <c r="D72" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
         <v>326</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H72" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>324</v>
       </c>
@@ -3743,22 +3744,22 @@
         <v>318</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E73">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F73" t="s">
         <v>326</v>
       </c>
       <c r="G73" t="s">
-        <v>21</v>
-      </c>
-      <c r="H73">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="H73" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>324</v>
       </c>
@@ -3784,7 +3785,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>324</v>
       </c>
@@ -3792,22 +3793,22 @@
         <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E75">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>326</v>
       </c>
       <c r="G75" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75">
-        <v>100</v>
+        <v>19</v>
+      </c>
+      <c r="H75" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -3821,22 +3822,22 @@
         <v>318</v>
       </c>
       <c r="D76" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E76">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s">
         <v>326</v>
       </c>
       <c r="G76" t="s">
-        <v>19</v>
+        <v>313</v>
       </c>
       <c r="H76" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>324</v>
       </c>
@@ -3847,22 +3848,22 @@
         <v>318</v>
       </c>
       <c r="D77" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="E77">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
         <v>326</v>
       </c>
       <c r="G77" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="H77" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>324</v>
       </c>
@@ -3870,25 +3871,25 @@
         <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="E78">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F78" t="s">
         <v>326</v>
       </c>
       <c r="G78" t="s">
-        <v>27</v>
+        <v>316</v>
       </c>
       <c r="H78" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>324</v>
       </c>
@@ -3899,48 +3900,48 @@
         <v>318</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E79">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
         <v>326</v>
       </c>
       <c r="G79" t="s">
+        <v>316</v>
+      </c>
+      <c r="H79" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>324</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80">
         <v>21</v>
       </c>
-      <c r="H79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>324</v>
-      </c>
-      <c r="B80" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" t="s">
-        <v>318</v>
-      </c>
-      <c r="D80" t="s">
-        <v>26</v>
-      </c>
-      <c r="E80">
-        <v>14</v>
-      </c>
       <c r="F80" t="s">
         <v>326</v>
       </c>
       <c r="G80" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H80" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>324</v>
       </c>
@@ -3951,22 +3952,22 @@
         <v>318</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E81">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F81" t="s">
         <v>326</v>
       </c>
       <c r="G81" t="s">
-        <v>21</v>
-      </c>
-      <c r="H81">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="H81" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>324</v>
       </c>
@@ -3974,25 +3975,25 @@
         <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E82">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F82" t="s">
         <v>326</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
-      </c>
-      <c r="H82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="H82" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>324</v>
       </c>
@@ -4003,22 +4004,22 @@
         <v>318</v>
       </c>
       <c r="D83" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E83">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
         <v>326</v>
       </c>
       <c r="G83" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H83" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>324</v>
       </c>
@@ -4026,25 +4027,25 @@
         <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="E84">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F84" t="s">
         <v>326</v>
       </c>
       <c r="G84" t="s">
-        <v>21</v>
-      </c>
-      <c r="H84">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="H84" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>324</v>
       </c>
@@ -4055,22 +4056,22 @@
         <v>318</v>
       </c>
       <c r="D85" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E85">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F85" t="s">
         <v>326</v>
       </c>
       <c r="G85" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H85" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>324</v>
       </c>
@@ -4078,25 +4079,25 @@
         <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E86">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>326</v>
       </c>
       <c r="G86" t="s">
-        <v>21</v>
-      </c>
-      <c r="H86">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="H86" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>324</v>
       </c>
@@ -4107,22 +4108,22 @@
         <v>318</v>
       </c>
       <c r="D87" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E87">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
         <v>326</v>
       </c>
       <c r="G87" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="H87" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>324</v>
       </c>
@@ -4130,25 +4131,25 @@
         <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E88">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F88" t="s">
         <v>326</v>
       </c>
       <c r="G88" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="H88" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>324</v>
       </c>
@@ -4159,22 +4160,22 @@
         <v>318</v>
       </c>
       <c r="D89" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E89">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s">
         <v>326</v>
       </c>
       <c r="G89" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="H89" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>324</v>
       </c>
@@ -4182,25 +4183,25 @@
         <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E90">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F90" t="s">
         <v>326</v>
       </c>
       <c r="G90" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="H90" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>324</v>
       </c>
@@ -4211,22 +4212,22 @@
         <v>318</v>
       </c>
       <c r="D91" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E91">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
         <v>326</v>
       </c>
       <c r="G91" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="H91" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>324</v>
       </c>
@@ -4234,25 +4235,25 @@
         <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E92">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F92" t="s">
         <v>326</v>
       </c>
       <c r="G92" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="H92" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>324</v>
       </c>
@@ -4263,22 +4264,22 @@
         <v>318</v>
       </c>
       <c r="D93" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E93">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
         <v>326</v>
       </c>
       <c r="G93" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="H93" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>324</v>
       </c>
@@ -4286,25 +4287,25 @@
         <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E94">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F94" t="s">
         <v>326</v>
       </c>
       <c r="G94" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="H94" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>324</v>
       </c>
@@ -4315,22 +4316,22 @@
         <v>318</v>
       </c>
       <c r="D95" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E95">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F95" t="s">
         <v>326</v>
       </c>
       <c r="G95" t="s">
-        <v>19</v>
-      </c>
-      <c r="H95" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H95">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>324</v>
       </c>
@@ -4341,22 +4342,22 @@
         <v>318</v>
       </c>
       <c r="D96" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E96">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F96" t="s">
         <v>326</v>
       </c>
       <c r="G96" t="s">
-        <v>19</v>
-      </c>
-      <c r="H96" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H96">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>324</v>
       </c>
@@ -4364,25 +4365,25 @@
         <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E97">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F97" t="s">
         <v>326</v>
       </c>
       <c r="G97" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H97">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>324</v>
       </c>
@@ -4393,22 +4394,22 @@
         <v>318</v>
       </c>
       <c r="D98" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E98">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F98" t="s">
         <v>326</v>
       </c>
       <c r="G98" t="s">
-        <v>19</v>
-      </c>
-      <c r="H98" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>324</v>
       </c>
@@ -4416,25 +4417,25 @@
         <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E99">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F99" t="s">
         <v>326</v>
       </c>
       <c r="G99" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>324</v>
       </c>
@@ -4445,22 +4446,22 @@
         <v>318</v>
       </c>
       <c r="D100" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E100">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>326</v>
       </c>
       <c r="G100" t="s">
-        <v>19</v>
-      </c>
-      <c r="H100" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>324</v>
       </c>
@@ -4471,22 +4472,22 @@
         <v>318</v>
       </c>
       <c r="D101" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E101">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
         <v>326</v>
       </c>
       <c r="G101" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>324</v>
       </c>
@@ -4497,22 +4498,22 @@
         <v>318</v>
       </c>
       <c r="D102" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="E102">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F102" t="s">
         <v>326</v>
       </c>
       <c r="G102" t="s">
-        <v>316</v>
-      </c>
-      <c r="H102" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>324</v>
       </c>
@@ -4523,19 +4524,19 @@
         <v>318</v>
       </c>
       <c r="D103" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E103">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F103" t="s">
         <v>326</v>
       </c>
       <c r="G103" t="s">
-        <v>316</v>
-      </c>
-      <c r="H103" t="s">
-        <v>310</v>
+        <v>21</v>
+      </c>
+      <c r="H103">
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -4549,22 +4550,22 @@
         <v>318</v>
       </c>
       <c r="D104" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E104">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F104" t="s">
         <v>326</v>
       </c>
       <c r="G104" t="s">
-        <v>316</v>
-      </c>
-      <c r="H104" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H104">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>324</v>
       </c>
@@ -4575,22 +4576,22 @@
         <v>318</v>
       </c>
       <c r="D105" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E105">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
         <v>326</v>
       </c>
       <c r="G105" t="s">
-        <v>316</v>
+        <v>27</v>
       </c>
       <c r="H105" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>324</v>
       </c>
@@ -4598,25 +4599,25 @@
         <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="E106">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F106" t="s">
         <v>326</v>
       </c>
       <c r="G106" t="s">
-        <v>316</v>
+        <v>27</v>
       </c>
       <c r="H106" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>324</v>
       </c>
@@ -4627,22 +4628,22 @@
         <v>318</v>
       </c>
       <c r="D107" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E107">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F107" t="s">
         <v>326</v>
       </c>
       <c r="G107" t="s">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="H107" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>324</v>
       </c>
@@ -4650,25 +4651,25 @@
         <v>17</v>
       </c>
       <c r="C108" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E108">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
         <v>326</v>
       </c>
       <c r="G108" t="s">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="H108" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>324</v>
       </c>
@@ -4679,22 +4680,22 @@
         <v>318</v>
       </c>
       <c r="D109" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E109">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F109" t="s">
         <v>326</v>
       </c>
       <c r="G109" t="s">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="H109" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>324</v>
       </c>
@@ -4702,13 +4703,13 @@
         <v>17</v>
       </c>
       <c r="C110" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E110">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F110" t="s">
         <v>326</v>
@@ -4720,7 +4721,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>324</v>
       </c>
@@ -4731,10 +4732,10 @@
         <v>318</v>
       </c>
       <c r="D111" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E111">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F111" t="s">
         <v>326</v>
@@ -4746,7 +4747,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>324</v>
       </c>
@@ -4754,13 +4755,13 @@
         <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E112">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F112" t="s">
         <v>326</v>
@@ -4772,7 +4773,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>324</v>
       </c>
@@ -4783,10 +4784,10 @@
         <v>318</v>
       </c>
       <c r="D113" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E113">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F113" t="s">
         <v>326</v>
@@ -4798,7 +4799,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>324</v>
       </c>
@@ -4806,10 +4807,10 @@
         <v>17</v>
       </c>
       <c r="C114" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E114">
         <v>48</v>
@@ -4824,7 +4825,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>324</v>
       </c>
@@ -4835,37 +4836,37 @@
         <v>318</v>
       </c>
       <c r="D115" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E115">
+        <v>64</v>
+      </c>
+      <c r="F115" t="s">
+        <v>326</v>
+      </c>
+      <c r="G115" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>324</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>106</v>
+      </c>
+      <c r="E116">
         <v>49</v>
       </c>
-      <c r="F115" t="s">
-        <v>326</v>
-      </c>
-      <c r="G115" t="s">
-        <v>19</v>
-      </c>
-      <c r="H115" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>324</v>
-      </c>
-      <c r="B116" t="s">
-        <v>17</v>
-      </c>
-      <c r="C116" t="s">
-        <v>318</v>
-      </c>
-      <c r="D116" t="s">
-        <v>92</v>
-      </c>
-      <c r="E116">
-        <v>50</v>
-      </c>
       <c r="F116" t="s">
         <v>326</v>
       </c>
@@ -4876,7 +4877,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>324</v>
       </c>
@@ -4887,10 +4888,10 @@
         <v>318</v>
       </c>
       <c r="D117" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E117">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F117" t="s">
         <v>326</v>
@@ -4902,7 +4903,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>324</v>
       </c>
@@ -4910,13 +4911,13 @@
         <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E118">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F118" t="s">
         <v>326</v>
@@ -4928,7 +4929,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>324</v>
       </c>
@@ -4939,10 +4940,10 @@
         <v>318</v>
       </c>
       <c r="D119" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E119">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F119" t="s">
         <v>326</v>
@@ -4954,7 +4955,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>324</v>
       </c>
@@ -4962,13 +4963,13 @@
         <v>17</v>
       </c>
       <c r="C120" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E120">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F120" t="s">
         <v>326</v>
@@ -4980,7 +4981,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>324</v>
       </c>
@@ -4991,10 +4992,10 @@
         <v>318</v>
       </c>
       <c r="D121" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E121">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F121" t="s">
         <v>326</v>
@@ -5006,7 +5007,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>324</v>
       </c>
@@ -5014,13 +5015,13 @@
         <v>17</v>
       </c>
       <c r="C122" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E122">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F122" t="s">
         <v>326</v>
@@ -5032,7 +5033,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>324</v>
       </c>
@@ -5043,10 +5044,10 @@
         <v>318</v>
       </c>
       <c r="D123" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E123">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F123" t="s">
         <v>326</v>
@@ -5058,7 +5059,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>324</v>
       </c>
@@ -5066,13 +5067,13 @@
         <v>17</v>
       </c>
       <c r="C124" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D124" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="E124">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F124" t="s">
         <v>326</v>
@@ -5084,7 +5085,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>324</v>
       </c>
@@ -5095,37 +5096,37 @@
         <v>318</v>
       </c>
       <c r="D125" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="E125">
+        <v>74</v>
+      </c>
+      <c r="F125" t="s">
+        <v>326</v>
+      </c>
+      <c r="G125" t="s">
+        <v>19</v>
+      </c>
+      <c r="H125" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>324</v>
+      </c>
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" t="s">
+        <v>116</v>
+      </c>
+      <c r="E126">
         <v>59</v>
       </c>
-      <c r="F125" t="s">
-        <v>326</v>
-      </c>
-      <c r="G125" t="s">
-        <v>19</v>
-      </c>
-      <c r="H125" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>324</v>
-      </c>
-      <c r="B126" t="s">
-        <v>17</v>
-      </c>
-      <c r="C126" t="s">
-        <v>318</v>
-      </c>
-      <c r="D126" t="s">
-        <v>102</v>
-      </c>
-      <c r="E126">
-        <v>60</v>
-      </c>
       <c r="F126" t="s">
         <v>326</v>
       </c>
@@ -5136,7 +5137,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>324</v>
       </c>
@@ -5147,10 +5148,10 @@
         <v>318</v>
       </c>
       <c r="D127" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E127">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F127" t="s">
         <v>326</v>
@@ -5162,7 +5163,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>324</v>
       </c>
@@ -5170,13 +5171,13 @@
         <v>17</v>
       </c>
       <c r="C128" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E128">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F128" t="s">
         <v>326</v>
@@ -5188,7 +5189,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>324</v>
       </c>
@@ -5199,10 +5200,10 @@
         <v>318</v>
       </c>
       <c r="D129" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E129">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F129" t="s">
         <v>326</v>
@@ -5214,7 +5215,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>324</v>
       </c>
@@ -5222,13 +5223,13 @@
         <v>17</v>
       </c>
       <c r="C130" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E130">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F130" t="s">
         <v>326</v>
@@ -5240,7 +5241,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>324</v>
       </c>
@@ -5251,10 +5252,10 @@
         <v>318</v>
       </c>
       <c r="D131" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E131">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F131" t="s">
         <v>326</v>
@@ -5266,7 +5267,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>324</v>
       </c>
@@ -5274,13 +5275,13 @@
         <v>17</v>
       </c>
       <c r="C132" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D132" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E132">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F132" t="s">
         <v>326</v>
@@ -5292,7 +5293,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>324</v>
       </c>
@@ -5303,10 +5304,10 @@
         <v>318</v>
       </c>
       <c r="D133" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E133">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F133" t="s">
         <v>326</v>
@@ -5318,7 +5319,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>324</v>
       </c>
@@ -5326,13 +5327,13 @@
         <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E134">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
         <v>326</v>
@@ -5344,7 +5345,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>324</v>
       </c>
@@ -5355,10 +5356,10 @@
         <v>318</v>
       </c>
       <c r="D135" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E135">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F135" t="s">
         <v>326</v>
@@ -5370,7 +5371,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>324</v>
       </c>
@@ -5378,13 +5379,13 @@
         <v>17</v>
       </c>
       <c r="C136" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E136">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
         <v>326</v>
@@ -5396,7 +5397,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>324</v>
       </c>
@@ -5407,10 +5408,10 @@
         <v>318</v>
       </c>
       <c r="D137" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E137">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F137" t="s">
         <v>326</v>
@@ -5422,7 +5423,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>324</v>
       </c>
@@ -5430,13 +5431,13 @@
         <v>17</v>
       </c>
       <c r="C138" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E138">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F138" t="s">
         <v>326</v>
@@ -5448,7 +5449,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>324</v>
       </c>
@@ -5459,10 +5460,10 @@
         <v>318</v>
       </c>
       <c r="D139" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E139">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F139" t="s">
         <v>326</v>
@@ -5474,7 +5475,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>324</v>
       </c>
@@ -5482,13 +5483,13 @@
         <v>17</v>
       </c>
       <c r="C140" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D140" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E140">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
         <v>326</v>
@@ -5500,7 +5501,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>324</v>
       </c>
@@ -5511,10 +5512,10 @@
         <v>318</v>
       </c>
       <c r="D141" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E141">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F141" t="s">
         <v>326</v>
@@ -5526,7 +5527,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>324</v>
       </c>
@@ -5534,13 +5535,13 @@
         <v>17</v>
       </c>
       <c r="C142" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="D142" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="E142">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
         <v>326</v>
@@ -5552,7 +5553,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>324</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>324</v>
       </c>
@@ -5604,7 +5605,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>324</v>
       </c>
@@ -5630,7 +5631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>324</v>
       </c>
@@ -5656,7 +5657,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>324</v>
       </c>
@@ -5682,7 +5683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>324</v>
       </c>
@@ -5708,7 +5709,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>324</v>
       </c>
@@ -5812,7 +5813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>324</v>
       </c>
@@ -5838,7 +5839,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>324</v>
       </c>
@@ -5864,7 +5865,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>324</v>
       </c>
@@ -5890,7 +5891,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>324</v>
       </c>
@@ -5916,7 +5917,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>324</v>
       </c>
@@ -5942,7 +5943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>324</v>
       </c>
@@ -5968,7 +5969,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>324</v>
       </c>
@@ -5994,7 +5995,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>324</v>
       </c>
@@ -6020,7 +6021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>324</v>
       </c>
@@ -6046,7 +6047,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>324</v>
       </c>
@@ -6072,7 +6073,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>324</v>
       </c>
@@ -6098,7 +6099,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>324</v>
       </c>
@@ -6124,7 +6125,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>324</v>
       </c>
@@ -6150,7 +6151,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>324</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>324</v>
       </c>
@@ -6202,7 +6203,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>324</v>
       </c>
@@ -6228,7 +6229,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>324</v>
       </c>
@@ -6254,7 +6255,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>324</v>
       </c>
@@ -6280,7 +6281,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>324</v>
       </c>
@@ -6306,7 +6307,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>324</v>
       </c>
@@ -6332,7 +6333,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>324</v>
       </c>
@@ -6358,7 +6359,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>324</v>
       </c>
@@ -6384,7 +6385,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>324</v>
       </c>
@@ -6410,7 +6411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>324</v>
       </c>
@@ -6436,7 +6437,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>324</v>
       </c>
@@ -6462,7 +6463,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>324</v>
       </c>
@@ -6488,7 +6489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>324</v>
       </c>
@@ -6514,7 +6515,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>324</v>
       </c>
@@ -6540,7 +6541,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>324</v>
       </c>
@@ -6566,7 +6567,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>324</v>
       </c>
@@ -6592,7 +6593,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>324</v>
       </c>
@@ -6618,7 +6619,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>324</v>
       </c>
@@ -6644,7 +6645,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>324</v>
       </c>
@@ -6670,7 +6671,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>324</v>
       </c>
@@ -6696,7 +6697,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>324</v>
       </c>
@@ -6722,7 +6723,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>324</v>
       </c>
@@ -6748,7 +6749,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>324</v>
       </c>
@@ -6774,7 +6775,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>324</v>
       </c>
@@ -6800,7 +6801,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>324</v>
       </c>
@@ -6826,7 +6827,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>324</v>
       </c>
@@ -6852,7 +6853,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>324</v>
       </c>
@@ -6878,7 +6879,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>324</v>
       </c>
@@ -6904,7 +6905,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>324</v>
       </c>
@@ -6930,7 +6931,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>324</v>
       </c>
@@ -6956,7 +6957,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>324</v>
       </c>
@@ -6982,7 +6983,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>324</v>
       </c>
@@ -7008,7 +7009,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>324</v>
       </c>
@@ -7034,7 +7035,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>324</v>
       </c>
@@ -7060,7 +7061,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>324</v>
       </c>
@@ -7086,7 +7087,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>324</v>
       </c>
@@ -7112,7 +7113,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>324</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>324</v>
       </c>
@@ -7164,7 +7165,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>324</v>
       </c>
@@ -7190,7 +7191,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>324</v>
       </c>
@@ -7216,7 +7217,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>324</v>
       </c>
@@ -7242,7 +7243,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>324</v>
       </c>
@@ -7268,7 +7269,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>324</v>
       </c>
@@ -7294,7 +7295,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>324</v>
       </c>
@@ -7320,7 +7321,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>324</v>
       </c>
@@ -7346,7 +7347,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>324</v>
       </c>
@@ -7372,7 +7373,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>324</v>
       </c>
@@ -7398,7 +7399,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>324</v>
       </c>
@@ -7424,7 +7425,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>324</v>
       </c>
@@ -7450,7 +7451,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>324</v>
       </c>
@@ -7476,7 +7477,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>324</v>
       </c>
@@ -7502,7 +7503,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>324</v>
       </c>
@@ -7528,7 +7529,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>324</v>
       </c>
@@ -7554,7 +7555,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>324</v>
       </c>
@@ -7580,7 +7581,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>324</v>
       </c>
@@ -7606,7 +7607,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>324</v>
       </c>
@@ -7632,7 +7633,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>324</v>
       </c>
@@ -7658,7 +7659,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>324</v>
       </c>
@@ -7684,7 +7685,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>324</v>
       </c>
@@ -7710,7 +7711,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>324</v>
       </c>
@@ -7736,7 +7737,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>324</v>
       </c>
@@ -7762,7 +7763,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>324</v>
       </c>
@@ -7788,7 +7789,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>324</v>
       </c>
@@ -7814,7 +7815,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>324</v>
       </c>
@@ -7840,7 +7841,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>324</v>
       </c>
@@ -7866,7 +7867,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>324</v>
       </c>
@@ -7892,7 +7893,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>324</v>
       </c>
@@ -7918,7 +7919,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>324</v>
       </c>
@@ -7944,7 +7945,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>324</v>
       </c>
@@ -7970,7 +7971,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>324</v>
       </c>
@@ -7996,7 +7997,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>324</v>
       </c>
@@ -8022,7 +8023,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>324</v>
       </c>
@@ -8048,7 +8049,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>324</v>
       </c>
@@ -8074,7 +8075,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>324</v>
       </c>
@@ -8100,7 +8101,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>324</v>
       </c>
@@ -8126,7 +8127,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>324</v>
       </c>
@@ -8152,7 +8153,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>324</v>
       </c>
@@ -8178,7 +8179,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>324</v>
       </c>
@@ -8204,7 +8205,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>324</v>
       </c>
@@ -8230,7 +8231,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>324</v>
       </c>
@@ -8256,7 +8257,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>324</v>
       </c>
@@ -8282,7 +8283,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>324</v>
       </c>
@@ -8308,7 +8309,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>324</v>
       </c>
@@ -8334,7 +8335,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>324</v>
       </c>
@@ -8360,7 +8361,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>324</v>
       </c>
@@ -8386,7 +8387,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>324</v>
       </c>
@@ -8412,7 +8413,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>324</v>
       </c>
@@ -8438,7 +8439,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>324</v>
       </c>
@@ -8464,7 +8465,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>324</v>
       </c>
@@ -8490,7 +8491,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>324</v>
       </c>
@@ -8516,7 +8517,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>324</v>
       </c>
@@ -8542,7 +8543,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>324</v>
       </c>
@@ -8568,7 +8569,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>324</v>
       </c>
@@ -8594,7 +8595,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>324</v>
       </c>
@@ -8620,7 +8621,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>324</v>
       </c>
@@ -8646,7 +8647,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>324</v>
       </c>
@@ -8672,7 +8673,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>324</v>
       </c>
@@ -8698,7 +8699,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>324</v>
       </c>
@@ -8724,7 +8725,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>324</v>
       </c>
@@ -8750,7 +8751,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>324</v>
       </c>
@@ -8776,7 +8777,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>324</v>
       </c>
@@ -8802,7 +8803,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>324</v>
       </c>
@@ -8828,7 +8829,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>324</v>
       </c>
@@ -8854,7 +8855,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>324</v>
       </c>
@@ -8880,7 +8881,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>324</v>
       </c>
@@ -8906,7 +8907,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>324</v>
       </c>
@@ -8932,7 +8933,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>324</v>
       </c>
@@ -8958,7 +8959,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>324</v>
       </c>
@@ -8984,7 +8985,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>324</v>
       </c>
@@ -9010,7 +9011,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>324</v>
       </c>
@@ -9036,7 +9037,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>324</v>
       </c>
@@ -9062,7 +9063,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>324</v>
       </c>
@@ -9088,7 +9089,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>324</v>
       </c>
@@ -9114,7 +9115,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>324</v>
       </c>
@@ -9140,7 +9141,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>324</v>
       </c>
@@ -9166,7 +9167,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>324</v>
       </c>
@@ -9192,7 +9193,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>324</v>
       </c>
@@ -9218,7 +9219,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>324</v>
       </c>
@@ -9244,7 +9245,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>324</v>
       </c>
@@ -9270,7 +9271,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>324</v>
       </c>
@@ -9296,7 +9297,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>324</v>
       </c>
@@ -9322,7 +9323,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>324</v>
       </c>
@@ -9348,7 +9349,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>324</v>
       </c>
@@ -9374,7 +9375,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>324</v>
       </c>
@@ -9400,7 +9401,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>324</v>
       </c>
@@ -9426,7 +9427,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>324</v>
       </c>
@@ -9452,7 +9453,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>324</v>
       </c>
@@ -9478,7 +9479,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>324</v>
       </c>
@@ -9504,7 +9505,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>324</v>
       </c>
@@ -9530,7 +9531,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>324</v>
       </c>
@@ -9556,7 +9557,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>324</v>
       </c>
@@ -9582,7 +9583,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>324</v>
       </c>
@@ -9608,7 +9609,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>324</v>
       </c>
@@ -9634,7 +9635,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>324</v>
       </c>
@@ -9660,7 +9661,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>324</v>
       </c>
@@ -9686,7 +9687,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>324</v>
       </c>
@@ -9712,7 +9713,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>324</v>
       </c>
@@ -9738,7 +9739,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>324</v>
       </c>
@@ -9764,7 +9765,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>324</v>
       </c>
@@ -9790,7 +9791,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -9816,7 +9817,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>324</v>
       </c>
@@ -9842,7 +9843,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>324</v>
       </c>
@@ -9868,7 +9869,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>324</v>
       </c>
@@ -9894,7 +9895,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>324</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>324</v>
       </c>
@@ -9946,7 +9947,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>324</v>
       </c>
@@ -9972,7 +9973,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>324</v>
       </c>
@@ -9998,7 +9999,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>324</v>
       </c>
@@ -10024,7 +10025,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>324</v>
       </c>
@@ -10050,7 +10051,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>324</v>
       </c>
@@ -10076,7 +10077,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>324</v>
       </c>
@@ -10102,7 +10103,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>324</v>
       </c>
@@ -10128,7 +10129,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>324</v>
       </c>
@@ -10154,7 +10155,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>324</v>
       </c>
@@ -10180,7 +10181,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>324</v>
       </c>
@@ -10206,7 +10207,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>324</v>
       </c>
@@ -10232,7 +10233,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>324</v>
       </c>
@@ -10258,7 +10259,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>324</v>
       </c>
@@ -10284,7 +10285,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -10310,7 +10311,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>324</v>
       </c>
@@ -10336,7 +10337,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>324</v>
       </c>
@@ -10362,7 +10363,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>324</v>
       </c>
@@ -10388,7 +10389,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>324</v>
       </c>
@@ -10414,7 +10415,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>324</v>
       </c>
@@ -10440,7 +10441,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>324</v>
       </c>
@@ -10466,7 +10467,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>324</v>
       </c>
@@ -10492,7 +10493,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>324</v>
       </c>
@@ -10518,7 +10519,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>324</v>
       </c>
@@ -10544,7 +10545,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>324</v>
       </c>
@@ -10570,7 +10571,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>324</v>
       </c>
@@ -10596,7 +10597,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>324</v>
       </c>
@@ -10622,7 +10623,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>324</v>
       </c>
@@ -10648,7 +10649,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>324</v>
       </c>
@@ -10674,7 +10675,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>324</v>
       </c>
@@ -10700,7 +10701,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>324</v>
       </c>
@@ -10726,7 +10727,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>324</v>
       </c>
@@ -10752,7 +10753,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>324</v>
       </c>
@@ -10778,7 +10779,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>324</v>
       </c>
@@ -10804,7 +10805,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>324</v>
       </c>
@@ -10830,7 +10831,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>324</v>
       </c>
@@ -10856,7 +10857,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>324</v>
       </c>
@@ -10882,7 +10883,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>324</v>
       </c>
@@ -10908,7 +10909,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>324</v>
       </c>
@@ -10934,7 +10935,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>324</v>
       </c>
@@ -10960,7 +10961,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>324</v>
       </c>
@@ -10986,7 +10987,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>324</v>
       </c>
@@ -11012,7 +11013,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>324</v>
       </c>
@@ -11038,7 +11039,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>324</v>
       </c>
@@ -11064,7 +11065,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>324</v>
       </c>
@@ -11090,7 +11091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>324</v>
       </c>
@@ -11116,7 +11117,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>324</v>
       </c>
@@ -11142,7 +11143,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>324</v>
       </c>
@@ -11168,7 +11169,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>324</v>
       </c>
@@ -11194,7 +11195,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>324</v>
       </c>
@@ -11220,7 +11221,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>324</v>
       </c>
@@ -11246,7 +11247,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>324</v>
       </c>
@@ -11272,7 +11273,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>324</v>
       </c>
@@ -11298,7 +11299,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>324</v>
       </c>
@@ -11324,7 +11325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>324</v>
       </c>
@@ -11350,7 +11351,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>324</v>
       </c>
@@ -11376,7 +11377,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>324</v>
       </c>
@@ -11402,7 +11403,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>324</v>
       </c>
@@ -11506,7 +11507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>324</v>
       </c>
@@ -11532,7 +11533,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>324</v>
       </c>
@@ -11558,7 +11559,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>324</v>
       </c>
@@ -11584,7 +11585,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>324</v>
       </c>
@@ -11610,7 +11611,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>324</v>
       </c>
@@ -11636,7 +11637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>324</v>
       </c>
@@ -11662,7 +11663,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>324</v>
       </c>
@@ -11688,7 +11689,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>324</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>324</v>
       </c>
@@ -11740,7 +11741,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>324</v>
       </c>
@@ -11766,7 +11767,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>324</v>
       </c>
@@ -11792,7 +11793,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>324</v>
       </c>
@@ -11818,7 +11819,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>324</v>
       </c>
@@ -11844,7 +11845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>324</v>
       </c>
@@ -11870,7 +11871,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>324</v>
       </c>
@@ -11896,7 +11897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>324</v>
       </c>
@@ -11922,7 +11923,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>324</v>
       </c>
@@ -11948,7 +11949,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>324</v>
       </c>
@@ -11974,7 +11975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>324</v>
       </c>
@@ -12000,7 +12001,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>324</v>
       </c>
@@ -12026,7 +12027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>324</v>
       </c>
@@ -12052,7 +12053,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>324</v>
       </c>
@@ -12078,7 +12079,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>324</v>
       </c>
@@ -12104,7 +12105,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>324</v>
       </c>
@@ -12130,7 +12131,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>324</v>
       </c>
@@ -12156,7 +12157,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>324</v>
       </c>
@@ -12182,7 +12183,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>324</v>
       </c>
@@ -12208,7 +12209,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>324</v>
       </c>
@@ -12234,7 +12235,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>324</v>
       </c>
@@ -12260,7 +12261,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>324</v>
       </c>
@@ -12286,7 +12287,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>324</v>
       </c>
@@ -12312,7 +12313,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>324</v>
       </c>
@@ -12338,7 +12339,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>324</v>
       </c>
@@ -12364,7 +12365,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>324</v>
       </c>
@@ -12390,7 +12391,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>324</v>
       </c>
@@ -12416,7 +12417,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>324</v>
       </c>
@@ -12442,7 +12443,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>324</v>
       </c>
@@ -12468,7 +12469,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>324</v>
       </c>
@@ -12494,7 +12495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>324</v>
       </c>
@@ -12520,7 +12521,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>324</v>
       </c>
@@ -12546,7 +12547,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>324</v>
       </c>
@@ -12572,7 +12573,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>324</v>
       </c>
@@ -12598,7 +12599,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>324</v>
       </c>
@@ -12624,7 +12625,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>324</v>
       </c>
@@ -12650,7 +12651,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>324</v>
       </c>
@@ -12676,7 +12677,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>324</v>
       </c>
@@ -12702,7 +12703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>324</v>
       </c>
@@ -12728,7 +12729,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>324</v>
       </c>
@@ -12754,7 +12755,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>324</v>
       </c>
@@ -12780,7 +12781,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>324</v>
       </c>
@@ -12806,7 +12807,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>324</v>
       </c>
@@ -12832,7 +12833,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>324</v>
       </c>
@@ -12858,7 +12859,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>324</v>
       </c>
@@ -12884,7 +12885,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>324</v>
       </c>
@@ -12910,7 +12911,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>324</v>
       </c>
@@ -12936,7 +12937,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>324</v>
       </c>
@@ -12962,7 +12963,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>324</v>
       </c>
@@ -12988,7 +12989,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>324</v>
       </c>
@@ -13014,7 +13015,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>324</v>
       </c>
@@ -13040,7 +13041,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>324</v>
       </c>
@@ -13066,7 +13067,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>324</v>
       </c>
@@ -13092,7 +13093,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>324</v>
       </c>
@@ -13118,7 +13119,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>324</v>
       </c>
@@ -13144,7 +13145,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>324</v>
       </c>
@@ -13170,7 +13171,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>324</v>
       </c>
@@ -13196,7 +13197,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>324</v>
       </c>
@@ -13222,7 +13223,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>324</v>
       </c>
@@ -13248,7 +13249,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>324</v>
       </c>
@@ -13274,7 +13275,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>324</v>
       </c>
@@ -13300,7 +13301,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>324</v>
       </c>
@@ -13326,7 +13327,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>324</v>
       </c>
@@ -13352,7 +13353,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>324</v>
       </c>
@@ -13378,7 +13379,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>324</v>
       </c>
@@ -13404,7 +13405,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>324</v>
       </c>
@@ -13430,7 +13431,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>324</v>
       </c>
@@ -13456,7 +13457,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>324</v>
       </c>
@@ -13482,7 +13483,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>324</v>
       </c>
@@ -13508,7 +13509,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>324</v>
       </c>
@@ -13534,7 +13535,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>324</v>
       </c>
@@ -13560,7 +13561,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>324</v>
       </c>
@@ -13586,7 +13587,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>324</v>
       </c>
@@ -13612,7 +13613,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>324</v>
       </c>
@@ -13638,7 +13639,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>324</v>
       </c>
@@ -13664,7 +13665,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>324</v>
       </c>
@@ -13690,7 +13691,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>324</v>
       </c>
@@ -13716,7 +13717,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>324</v>
       </c>
@@ -13742,7 +13743,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>324</v>
       </c>
@@ -13768,7 +13769,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>324</v>
       </c>
@@ -13794,7 +13795,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>324</v>
       </c>
@@ -13820,7 +13821,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>324</v>
       </c>
@@ -13846,7 +13847,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>324</v>
       </c>
@@ -13872,7 +13873,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>324</v>
       </c>
@@ -13898,7 +13899,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>324</v>
       </c>
@@ -13924,7 +13925,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>324</v>
       </c>
@@ -13950,7 +13951,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>324</v>
       </c>
@@ -13976,7 +13977,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>324</v>
       </c>
@@ -14002,7 +14003,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>324</v>
       </c>
@@ -14028,7 +14029,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>324</v>
       </c>
@@ -14054,7 +14055,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>324</v>
       </c>
@@ -14080,7 +14081,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>324</v>
       </c>
@@ -14106,7 +14107,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>324</v>
       </c>
@@ -14132,7 +14133,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>324</v>
       </c>
@@ -14158,7 +14159,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>324</v>
       </c>
@@ -14184,7 +14185,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>324</v>
       </c>
@@ -14210,7 +14211,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>324</v>
       </c>
@@ -14236,7 +14237,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>324</v>
       </c>
@@ -14262,7 +14263,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>324</v>
       </c>
@@ -14288,7 +14289,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>324</v>
       </c>
@@ -14314,7 +14315,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>324</v>
       </c>
@@ -14340,7 +14341,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>324</v>
       </c>
@@ -14366,7 +14367,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>324</v>
       </c>
@@ -14392,7 +14393,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>324</v>
       </c>
@@ -14418,7 +14419,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>324</v>
       </c>
@@ -14444,7 +14445,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>324</v>
       </c>
@@ -14470,7 +14471,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>324</v>
       </c>
@@ -14496,7 +14497,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>324</v>
       </c>
@@ -14522,7 +14523,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>324</v>
       </c>
@@ -14548,7 +14549,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>324</v>
       </c>
@@ -14574,7 +14575,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>324</v>
       </c>
@@ -14600,7 +14601,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>324</v>
       </c>
@@ -14626,7 +14627,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>324</v>
       </c>
@@ -14652,7 +14653,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>324</v>
       </c>
@@ -14678,7 +14679,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>324</v>
       </c>
@@ -14704,7 +14705,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>324</v>
       </c>
@@ -14730,7 +14731,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>324</v>
       </c>
@@ -14756,7 +14757,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>324</v>
       </c>
@@ -14782,7 +14783,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>324</v>
       </c>
@@ -14808,7 +14809,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>324</v>
       </c>
@@ -14834,7 +14835,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>324</v>
       </c>
@@ -14860,7 +14861,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>324</v>
       </c>
@@ -14886,7 +14887,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>324</v>
       </c>
@@ -14912,7 +14913,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>324</v>
       </c>
@@ -14938,7 +14939,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>324</v>
       </c>
@@ -14964,7 +14965,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>324</v>
       </c>
@@ -14990,7 +14991,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>324</v>
       </c>
@@ -15016,7 +15017,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>324</v>
       </c>
@@ -15042,7 +15043,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>324</v>
       </c>
@@ -15068,7 +15069,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>324</v>
       </c>
@@ -15094,7 +15095,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>324</v>
       </c>
@@ -15120,7 +15121,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>324</v>
       </c>
@@ -15146,7 +15147,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>324</v>
       </c>
@@ -15172,7 +15173,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>324</v>
       </c>
@@ -15198,7 +15199,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>324</v>
       </c>
@@ -15224,7 +15225,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>324</v>
       </c>
@@ -15250,7 +15251,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>324</v>
       </c>
@@ -15276,7 +15277,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>324</v>
       </c>
@@ -15302,7 +15303,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>324</v>
       </c>
@@ -15328,7 +15329,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>324</v>
       </c>
@@ -15354,7 +15355,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>324</v>
       </c>
@@ -15380,7 +15381,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>324</v>
       </c>
@@ -15406,7 +15407,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>324</v>
       </c>
@@ -15432,7 +15433,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>324</v>
       </c>
@@ -15458,7 +15459,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>324</v>
       </c>
@@ -15484,7 +15485,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>324</v>
       </c>
@@ -15510,7 +15511,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>324</v>
       </c>
@@ -15536,7 +15537,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>324</v>
       </c>
@@ -15562,7 +15563,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>324</v>
       </c>
@@ -15588,7 +15589,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>324</v>
       </c>
@@ -15614,7 +15615,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>324</v>
       </c>
@@ -15640,7 +15641,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>324</v>
       </c>
@@ -15666,7 +15667,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>324</v>
       </c>
@@ -15692,7 +15693,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>324</v>
       </c>
@@ -15718,7 +15719,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>324</v>
       </c>
@@ -15744,7 +15745,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>324</v>
       </c>
@@ -15770,7 +15771,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>324</v>
       </c>
@@ -15796,7 +15797,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>324</v>
       </c>
@@ -15822,7 +15823,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>324</v>
       </c>
@@ -15848,7 +15849,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>324</v>
       </c>
@@ -15874,7 +15875,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>324</v>
       </c>
@@ -15900,7 +15901,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>324</v>
       </c>
@@ -15926,7 +15927,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>324</v>
       </c>
@@ -15952,7 +15953,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>324</v>
       </c>
@@ -15978,7 +15979,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>324</v>
       </c>
@@ -16004,7 +16005,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>324</v>
       </c>
@@ -16030,7 +16031,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>324</v>
       </c>
@@ -16056,7 +16057,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>324</v>
       </c>
@@ -16082,7 +16083,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>324</v>
       </c>
@@ -16108,7 +16109,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>324</v>
       </c>
@@ -16134,7 +16135,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>324</v>
       </c>
@@ -16160,7 +16161,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>324</v>
       </c>
@@ -16186,7 +16187,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>324</v>
       </c>
@@ -16212,7 +16213,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>324</v>
       </c>
@@ -16238,7 +16239,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>324</v>
       </c>
@@ -16264,7 +16265,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>324</v>
       </c>
@@ -16290,7 +16291,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>324</v>
       </c>
@@ -16316,7 +16317,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>324</v>
       </c>
@@ -16342,7 +16343,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>324</v>
       </c>
@@ -16368,7 +16369,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>324</v>
       </c>
@@ -16394,7 +16395,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>324</v>
       </c>
@@ -16420,7 +16421,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>324</v>
       </c>
@@ -16446,7 +16447,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>324</v>
       </c>
@@ -16472,7 +16473,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>324</v>
       </c>
@@ -16498,7 +16499,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>324</v>
       </c>
@@ -16524,7 +16525,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>324</v>
       </c>
@@ -16550,7 +16551,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>324</v>
       </c>
@@ -16576,7 +16577,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>324</v>
       </c>
@@ -16602,7 +16603,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>324</v>
       </c>
@@ -16628,7 +16629,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>324</v>
       </c>
@@ -16654,7 +16655,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>324</v>
       </c>
@@ -16680,7 +16681,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>324</v>
       </c>
@@ -16706,7 +16707,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>324</v>
       </c>
@@ -16732,7 +16733,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>324</v>
       </c>
@@ -16758,7 +16759,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>324</v>
       </c>
@@ -16784,7 +16785,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>324</v>
       </c>
@@ -16810,7 +16811,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>324</v>
       </c>
@@ -16836,7 +16837,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>324</v>
       </c>
@@ -16862,7 +16863,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>324</v>
       </c>
@@ -16888,7 +16889,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>324</v>
       </c>
@@ -16914,7 +16915,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>324</v>
       </c>
@@ -16940,7 +16941,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>324</v>
       </c>
@@ -16966,7 +16967,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>324</v>
       </c>
@@ -16992,7 +16993,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>324</v>
       </c>
@@ -17018,7 +17019,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>324</v>
       </c>
@@ -17044,7 +17045,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>324</v>
       </c>
@@ -17070,7 +17071,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>324</v>
       </c>
@@ -17096,7 +17097,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>324</v>
       </c>
@@ -17122,7 +17123,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>324</v>
       </c>
@@ -17148,7 +17149,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>324</v>
       </c>
@@ -17174,7 +17175,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>324</v>
       </c>
@@ -17200,7 +17201,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>324</v>
       </c>
@@ -17226,7 +17227,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>324</v>
       </c>
@@ -17252,7 +17253,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>324</v>
       </c>
@@ -17278,7 +17279,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>324</v>
       </c>
@@ -17304,7 +17305,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>324</v>
       </c>
@@ -17330,7 +17331,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>324</v>
       </c>
@@ -17338,13 +17339,13 @@
         <v>17</v>
       </c>
       <c r="C596" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D596" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="E596">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="F596" t="s">
         <v>326</v>
@@ -17356,7 +17357,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>324</v>
       </c>
@@ -17367,10 +17368,10 @@
         <v>4</v>
       </c>
       <c r="D597" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="E597">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="F597" t="s">
         <v>326</v>
@@ -17382,7 +17383,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>324</v>
       </c>
@@ -17390,25 +17391,25 @@
         <v>17</v>
       </c>
       <c r="C598" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D598" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E598">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="F598" t="s">
         <v>326</v>
       </c>
       <c r="G598" t="s">
-        <v>313</v>
+        <v>19</v>
       </c>
       <c r="H598" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>324</v>
       </c>
@@ -17419,22 +17420,22 @@
         <v>4</v>
       </c>
       <c r="D599" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="E599">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F599" t="s">
         <v>326</v>
       </c>
       <c r="G599" t="s">
-        <v>313</v>
+        <v>19</v>
       </c>
       <c r="H599" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>324</v>
       </c>
@@ -17442,25 +17443,25 @@
         <v>17</v>
       </c>
       <c r="C600" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D600" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E600">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="F600" t="s">
         <v>326</v>
       </c>
       <c r="G600" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H600" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>324</v>
       </c>
@@ -17471,10 +17472,10 @@
         <v>4</v>
       </c>
       <c r="D601" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E601">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F601" t="s">
         <v>326</v>
@@ -17486,7 +17487,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>324</v>
       </c>
@@ -17494,13 +17495,13 @@
         <v>17</v>
       </c>
       <c r="C602" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D602" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E602">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="F602" t="s">
         <v>326</v>
@@ -17512,7 +17513,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>324</v>
       </c>
@@ -17523,10 +17524,10 @@
         <v>4</v>
       </c>
       <c r="D603" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E603">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F603" t="s">
         <v>326</v>
@@ -17538,7 +17539,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>324</v>
       </c>
@@ -17546,13 +17547,13 @@
         <v>17</v>
       </c>
       <c r="C604" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D604" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="E604">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="F604" t="s">
         <v>326</v>
@@ -17564,7 +17565,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>324</v>
       </c>
@@ -17575,10 +17576,10 @@
         <v>4</v>
       </c>
       <c r="D605" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E605">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F605" t="s">
         <v>326</v>
@@ -17590,7 +17591,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>324</v>
       </c>
@@ -17598,13 +17599,13 @@
         <v>17</v>
       </c>
       <c r="C606" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D606" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="E606">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F606" t="s">
         <v>326</v>
@@ -17616,7 +17617,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>324</v>
       </c>
@@ -17627,10 +17628,10 @@
         <v>4</v>
       </c>
       <c r="D607" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E607">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F607" t="s">
         <v>326</v>
@@ -17642,7 +17643,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>324</v>
       </c>
@@ -17650,13 +17651,13 @@
         <v>17</v>
       </c>
       <c r="C608" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D608" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E608">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F608" t="s">
         <v>326</v>
@@ -17668,7 +17669,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>324</v>
       </c>
@@ -17679,10 +17680,10 @@
         <v>4</v>
       </c>
       <c r="D609" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E609">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F609" t="s">
         <v>326</v>
@@ -17694,7 +17695,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>324</v>
       </c>
@@ -17702,13 +17703,13 @@
         <v>17</v>
       </c>
       <c r="C610" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D610" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E610">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F610" t="s">
         <v>326</v>
@@ -17720,7 +17721,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>324</v>
       </c>
@@ -17731,10 +17732,10 @@
         <v>4</v>
       </c>
       <c r="D611" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E611">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F611" t="s">
         <v>326</v>
@@ -17746,7 +17747,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>324</v>
       </c>
@@ -17754,13 +17755,13 @@
         <v>17</v>
       </c>
       <c r="C612" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D612" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="E612">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F612" t="s">
         <v>326</v>
@@ -17772,7 +17773,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>324</v>
       </c>
@@ -17783,10 +17784,10 @@
         <v>4</v>
       </c>
       <c r="D613" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="E613">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F613" t="s">
         <v>326</v>
@@ -17798,7 +17799,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>324</v>
       </c>
@@ -17806,13 +17807,13 @@
         <v>17</v>
       </c>
       <c r="C614" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D614" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="E614">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F614" t="s">
         <v>326</v>
@@ -17824,7 +17825,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>324</v>
       </c>
@@ -17835,10 +17836,10 @@
         <v>4</v>
       </c>
       <c r="D615" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="E615">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F615" t="s">
         <v>326</v>
@@ -17850,7 +17851,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>324</v>
       </c>
@@ -17858,25 +17859,25 @@
         <v>17</v>
       </c>
       <c r="C616" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D616" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E616">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F616" t="s">
         <v>326</v>
       </c>
       <c r="G616" t="s">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="H616" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>324</v>
       </c>
@@ -17887,22 +17888,22 @@
         <v>4</v>
       </c>
       <c r="D617" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E617">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F617" t="s">
         <v>326</v>
       </c>
       <c r="G617" t="s">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="H617" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>324</v>
       </c>
@@ -17910,25 +17911,25 @@
         <v>17</v>
       </c>
       <c r="C618" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D618" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E618">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F618" t="s">
         <v>326</v>
       </c>
       <c r="G618" t="s">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="H618" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>324</v>
       </c>
@@ -17939,22 +17940,22 @@
         <v>4</v>
       </c>
       <c r="D619" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E619">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F619" t="s">
         <v>326</v>
       </c>
       <c r="G619" t="s">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="H619" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>324</v>
       </c>
@@ -17962,25 +17963,25 @@
         <v>17</v>
       </c>
       <c r="C620" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D620" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E620">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F620" t="s">
         <v>326</v>
       </c>
       <c r="G620" t="s">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="H620" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>324</v>
       </c>
@@ -17991,22 +17992,22 @@
         <v>4</v>
       </c>
       <c r="D621" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E621">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F621" t="s">
         <v>326</v>
       </c>
       <c r="G621" t="s">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="H621" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>324</v>
       </c>
@@ -18014,25 +18015,25 @@
         <v>17</v>
       </c>
       <c r="C622" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D622" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E622">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F622" t="s">
         <v>326</v>
       </c>
       <c r="G622" t="s">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="H622" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>324</v>
       </c>
@@ -18043,22 +18044,22 @@
         <v>4</v>
       </c>
       <c r="D623" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E623">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F623" t="s">
         <v>326</v>
       </c>
       <c r="G623" t="s">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="H623" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>324</v>
       </c>
@@ -18066,13 +18067,13 @@
         <v>17</v>
       </c>
       <c r="C624" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D624" t="s">
         <v>86</v>
       </c>
       <c r="E624">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F624" t="s">
         <v>326</v>
@@ -18084,7 +18085,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>324</v>
       </c>
@@ -18095,10 +18096,10 @@
         <v>4</v>
       </c>
       <c r="D625" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E625">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F625" t="s">
         <v>326</v>
@@ -18110,7 +18111,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>324</v>
       </c>
@@ -18118,13 +18119,13 @@
         <v>17</v>
       </c>
       <c r="C626" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D626" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E626">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F626" t="s">
         <v>326</v>
@@ -18136,7 +18137,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>324</v>
       </c>
@@ -18147,10 +18148,10 @@
         <v>4</v>
       </c>
       <c r="D627" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E627">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F627" t="s">
         <v>326</v>
@@ -18162,7 +18163,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>324</v>
       </c>
@@ -18170,13 +18171,13 @@
         <v>17</v>
       </c>
       <c r="C628" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D628" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E628">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F628" t="s">
         <v>326</v>
@@ -18188,7 +18189,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>324</v>
       </c>
@@ -18199,10 +18200,10 @@
         <v>4</v>
       </c>
       <c r="D629" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E629">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F629" t="s">
         <v>326</v>
@@ -18214,7 +18215,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>324</v>
       </c>
@@ -18222,13 +18223,13 @@
         <v>17</v>
       </c>
       <c r="C630" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D630" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E630">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F630" t="s">
         <v>326</v>
@@ -18240,7 +18241,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>324</v>
       </c>
@@ -18251,10 +18252,10 @@
         <v>4</v>
       </c>
       <c r="D631" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E631">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F631" t="s">
         <v>326</v>
@@ -18266,7 +18267,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>324</v>
       </c>
@@ -18274,13 +18275,13 @@
         <v>17</v>
       </c>
       <c r="C632" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D632" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E632">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F632" t="s">
         <v>326</v>
@@ -18292,7 +18293,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>324</v>
       </c>
@@ -18303,10 +18304,10 @@
         <v>4</v>
       </c>
       <c r="D633" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="E633">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F633" t="s">
         <v>326</v>
@@ -18318,7 +18319,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>324</v>
       </c>
@@ -18326,13 +18327,13 @@
         <v>17</v>
       </c>
       <c r="C634" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D634" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E634">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F634" t="s">
         <v>326</v>
@@ -18344,7 +18345,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>324</v>
       </c>
@@ -18355,10 +18356,10 @@
         <v>4</v>
       </c>
       <c r="D635" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E635">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F635" t="s">
         <v>326</v>
@@ -18370,7 +18371,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>324</v>
       </c>
@@ -18378,13 +18379,13 @@
         <v>17</v>
       </c>
       <c r="C636" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D636" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E636">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F636" t="s">
         <v>326</v>
@@ -18396,7 +18397,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>324</v>
       </c>
@@ -18407,10 +18408,10 @@
         <v>4</v>
       </c>
       <c r="D637" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E637">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F637" t="s">
         <v>326</v>
@@ -18422,7 +18423,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>324</v>
       </c>
@@ -18430,13 +18431,13 @@
         <v>17</v>
       </c>
       <c r="C638" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D638" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="E638">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F638" t="s">
         <v>326</v>
@@ -18448,7 +18449,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>324</v>
       </c>
@@ -18459,10 +18460,10 @@
         <v>4</v>
       </c>
       <c r="D639" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="E639">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="F639" t="s">
         <v>326</v>
@@ -18474,7 +18475,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>324</v>
       </c>
@@ -18482,13 +18483,13 @@
         <v>17</v>
       </c>
       <c r="C640" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D640" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="E640">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F640" t="s">
         <v>326</v>
@@ -18500,7 +18501,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>324</v>
       </c>
@@ -18511,10 +18512,10 @@
         <v>4</v>
       </c>
       <c r="D641" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="E641">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F641" t="s">
         <v>326</v>
@@ -18526,7 +18527,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>324</v>
       </c>
@@ -18534,13 +18535,13 @@
         <v>17</v>
       </c>
       <c r="C642" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D642" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="E642">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F642" t="s">
         <v>326</v>
@@ -18552,7 +18553,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>324</v>
       </c>
@@ -18563,10 +18564,10 @@
         <v>4</v>
       </c>
       <c r="D643" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="E643">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F643" t="s">
         <v>326</v>
@@ -18578,7 +18579,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>324</v>
       </c>
@@ -18586,13 +18587,13 @@
         <v>17</v>
       </c>
       <c r="C644" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D644" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="E644">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F644" t="s">
         <v>326</v>
@@ -18604,7 +18605,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>324</v>
       </c>
@@ -18615,10 +18616,10 @@
         <v>4</v>
       </c>
       <c r="D645" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="E645">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F645" t="s">
         <v>326</v>
@@ -18630,7 +18631,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>324</v>
       </c>
@@ -18638,13 +18639,13 @@
         <v>17</v>
       </c>
       <c r="C646" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D646" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="E646">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F646" t="s">
         <v>326</v>
@@ -18656,7 +18657,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>324</v>
       </c>
@@ -18667,10 +18668,10 @@
         <v>4</v>
       </c>
       <c r="D647" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="E647">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="F647" t="s">
         <v>326</v>
@@ -18682,7 +18683,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>324</v>
       </c>
@@ -18690,13 +18691,13 @@
         <v>17</v>
       </c>
       <c r="C648" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D648" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E648">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F648" t="s">
         <v>326</v>
@@ -18708,7 +18709,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>324</v>
       </c>
@@ -18719,10 +18720,10 @@
         <v>4</v>
       </c>
       <c r="D649" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="E649">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F649" t="s">
         <v>326</v>
@@ -18734,7 +18735,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>324</v>
       </c>
@@ -18742,13 +18743,13 @@
         <v>17</v>
       </c>
       <c r="C650" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D650" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="E650">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F650" t="s">
         <v>326</v>
@@ -18760,7 +18761,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>324</v>
       </c>
@@ -18771,10 +18772,10 @@
         <v>4</v>
       </c>
       <c r="D651" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="E651">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F651" t="s">
         <v>326</v>
@@ -18786,7 +18787,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>324</v>
       </c>
@@ -18794,13 +18795,13 @@
         <v>17</v>
       </c>
       <c r="C652" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D652" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="E652">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="F652" t="s">
         <v>326</v>
@@ -18812,7 +18813,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>324</v>
       </c>
@@ -18823,10 +18824,10 @@
         <v>4</v>
       </c>
       <c r="D653" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="E653">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F653" t="s">
         <v>326</v>
@@ -18838,7 +18839,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>324</v>
       </c>
@@ -18846,13 +18847,13 @@
         <v>17</v>
       </c>
       <c r="C654" t="s">
-        <v>4</v>
+        <v>318</v>
       </c>
       <c r="D654" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="E654">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F654" t="s">
         <v>326</v>
@@ -18864,7 +18865,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>324</v>
       </c>
@@ -18875,10 +18876,10 @@
         <v>4</v>
       </c>
       <c r="D655" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="E655">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F655" t="s">
         <v>326</v>
@@ -18890,7 +18891,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>324</v>
       </c>
@@ -18898,25 +18899,25 @@
         <v>17</v>
       </c>
       <c r="C656" t="s">
+        <v>318</v>
+      </c>
+      <c r="D656" t="s">
+        <v>58</v>
+      </c>
+      <c r="E656">
         <v>4</v>
       </c>
-      <c r="D656" t="s">
-        <v>118</v>
-      </c>
-      <c r="E656">
-        <v>61</v>
-      </c>
       <c r="F656" t="s">
         <v>326</v>
       </c>
       <c r="G656" t="s">
-        <v>19</v>
-      </c>
-      <c r="H656" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H656">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>324</v>
       </c>
@@ -18927,19 +18928,19 @@
         <v>0</v>
       </c>
       <c r="D657" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E657">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F657" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G657" t="s">
-        <v>19</v>
-      </c>
-      <c r="H657" t="s">
-        <v>310</v>
+        <v>21</v>
+      </c>
+      <c r="H657">
+        <v>20</v>
       </c>
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.3">
@@ -18950,25 +18951,25 @@
         <v>17</v>
       </c>
       <c r="C658" t="s">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="D658" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E658">
+        <v>16</v>
+      </c>
+      <c r="F658" t="s">
+        <v>326</v>
+      </c>
+      <c r="G658" t="s">
+        <v>30</v>
+      </c>
+      <c r="H658">
         <v>2</v>
       </c>
-      <c r="F658" t="s">
-        <v>326</v>
-      </c>
-      <c r="G658" t="s">
-        <v>21</v>
-      </c>
-      <c r="H658">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>324</v>
       </c>
@@ -18976,25 +18977,25 @@
         <v>17</v>
       </c>
       <c r="C659" t="s">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="D659" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E659">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F659" t="s">
         <v>326</v>
       </c>
       <c r="G659" t="s">
-        <v>21</v>
-      </c>
-      <c r="H659">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="H659" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>324</v>
       </c>
@@ -19002,10 +19003,10 @@
         <v>17</v>
       </c>
       <c r="C660" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D660" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E660">
         <v>4</v>
@@ -19014,13 +19015,13 @@
         <v>326</v>
       </c>
       <c r="G660" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H660" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>324</v>
       </c>
@@ -19031,10 +19032,10 @@
         <v>0</v>
       </c>
       <c r="D661" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E661">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F661" t="s">
         <v>326</v>
@@ -19046,7 +19047,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>324</v>
       </c>
@@ -19054,13 +19055,13 @@
         <v>17</v>
       </c>
       <c r="C662" t="s">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="D662" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E662">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F662" t="s">
         <v>326</v>
@@ -19072,7 +19073,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>324</v>
       </c>
@@ -19080,25 +19081,25 @@
         <v>17</v>
       </c>
       <c r="C663" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D663" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E663">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F663" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G663" t="s">
-        <v>19</v>
+        <v>313</v>
       </c>
       <c r="H663" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>324</v>
       </c>
@@ -19109,22 +19110,34 @@
         <v>0</v>
       </c>
       <c r="D664" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E664">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F664" t="s">
         <v>326</v>
       </c>
       <c r="G664" t="s">
-        <v>21</v>
-      </c>
-      <c r="H664">
-        <v>100</v>
+        <v>313</v>
+      </c>
+      <c r="H664" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H664" xr:uid="{7D27B71B-A5FD-489B-8BF1-A77C6A27A3DC}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="CO_UF"/>
+        <filter val="NO_UF"/>
+        <filter val="SG_UF"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A67:H664">
+      <sortCondition ref="D1:D664"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>